--- a/Data/SalaryData2024.xlsx
+++ b/Data/SalaryData2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint\OneDrive\Desktop\Python\PassRusherProfile\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{450B3B17-9ED6-4F3F-B301-2DD2F02E68FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81857E69-DD1B-45AC-AC8E-47A7147D93AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{145E95C2-4CEE-4C00-8587-05CEAAFF428B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="297">
   <si>
     <t>Player</t>
   </si>
@@ -47,27 +47,9 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Avg./Year</t>
   </si>
   <si>
-    <t>Guaranteed</t>
-  </si>
-  <si>
-    <t>Fully</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>Agency</t>
-  </si>
-  <si>
     <t>Maxx Crosby</t>
   </si>
   <si>
@@ -933,6 +915,18 @@
   </si>
   <si>
     <t>Josh Onujiogu</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Total Guaranteed</t>
+  </si>
+  <si>
+    <t>Fully Guaranteed</t>
+  </si>
+  <si>
+    <t>Free Agency</t>
   </si>
 </sst>
 </file>
@@ -1308,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056453F3-443A-43CE-9113-6295878462E1}">
-  <dimension ref="A1:J241"/>
+  <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1330,317 +1324,329 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1">
+        <v>106500000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>35500000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>91500000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>62500000</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>28</v>
       </c>
       <c r="D3" s="1">
-        <v>106500000</v>
+        <v>170000000</v>
       </c>
       <c r="E3" s="1">
-        <v>35500000</v>
+        <v>34000000</v>
       </c>
       <c r="F3" s="1">
-        <v>91500000</v>
+        <v>122500000</v>
       </c>
       <c r="G3" s="1">
-        <v>62500000</v>
+        <v>88000000</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>28</v>
       </c>
       <c r="D4" s="1">
-        <v>170000000</v>
+        <v>141250000</v>
       </c>
       <c r="E4" s="1">
-        <v>34000000</v>
+        <v>28250000</v>
       </c>
       <c r="F4" s="1">
-        <v>122500000</v>
+        <v>88000000</v>
       </c>
       <c r="G4" s="1">
-        <v>88000000</v>
+        <v>76500000</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
-        <v>141250000</v>
+        <v>141000000</v>
       </c>
       <c r="E5" s="1">
-        <v>28250000</v>
+        <v>28200000</v>
       </c>
       <c r="F5" s="1">
-        <v>88000000</v>
+        <v>87500000</v>
       </c>
       <c r="G5" s="1">
-        <v>76500000</v>
+        <v>76000000</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
-        <v>141000000</v>
+        <v>112011000</v>
       </c>
       <c r="E6" s="1">
-        <v>28200000</v>
+        <v>28002750</v>
       </c>
       <c r="F6" s="1">
-        <v>87500000</v>
+        <v>80000000</v>
       </c>
       <c r="G6" s="1">
-        <v>76000000</v>
+        <v>80000000</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
-        <v>112011000</v>
+        <v>125000000</v>
       </c>
       <c r="E7" s="1">
-        <v>28002750</v>
+        <v>25000000</v>
       </c>
       <c r="F7" s="1">
-        <v>80000000</v>
+        <v>100000000</v>
       </c>
       <c r="G7" s="1">
-        <v>80000000</v>
+        <v>50000000</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1">
-        <v>125000000</v>
+        <v>98000000</v>
       </c>
       <c r="E8" s="1">
-        <v>25000000</v>
+        <v>24500000</v>
       </c>
       <c r="F8" s="1">
-        <v>100000000</v>
+        <v>72865000</v>
       </c>
       <c r="G8" s="1">
-        <v>50000000</v>
+        <v>41965000</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
-        <v>98000000</v>
+        <v>49000000</v>
       </c>
       <c r="E9" s="1">
         <v>24500000</v>
       </c>
       <c r="F9" s="1">
-        <v>72865000</v>
+        <v>48000000</v>
       </c>
       <c r="G9" s="1">
-        <v>41965000</v>
+        <v>48000000</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1">
-        <v>49000000</v>
+        <v>96000000</v>
       </c>
       <c r="E10" s="1">
-        <v>24500000</v>
+        <v>24000000</v>
       </c>
       <c r="F10" s="1">
-        <v>48000000</v>
+        <v>34636928</v>
       </c>
       <c r="G10" s="1">
-        <v>48000000</v>
+        <v>34636928</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1">
-        <v>96000000</v>
+        <v>110000000</v>
       </c>
       <c r="E11" s="1">
-        <v>24000000</v>
+        <v>22000000</v>
       </c>
       <c r="F11" s="1">
-        <v>34636928</v>
+        <v>63212444</v>
       </c>
       <c r="G11" s="1">
-        <v>34636928</v>
+        <v>33462444</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1">
-        <v>110000000</v>
+        <v>21000000</v>
       </c>
       <c r="E12" s="1">
-        <v>22000000</v>
+        <v>21000000</v>
       </c>
       <c r="F12" s="1">
-        <v>63212444</v>
+        <v>8000000</v>
       </c>
       <c r="G12" s="1">
-        <v>33462444</v>
+        <v>8000000</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
-        <v>21000000</v>
+        <v>76355000</v>
       </c>
       <c r="E13" s="1">
-        <v>21000000</v>
+        <v>19088750</v>
       </c>
       <c r="F13" s="1">
-        <v>8000000</v>
+        <v>8500000</v>
       </c>
       <c r="G13" s="1">
-        <v>8000000</v>
+        <v>8500000</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
@@ -1648,455 +1654,455 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
-        <v>76355000</v>
+        <v>19000000</v>
       </c>
       <c r="E14" s="1">
-        <v>19088750</v>
+        <v>19000000</v>
       </c>
       <c r="F14" s="1">
-        <v>8500000</v>
+        <v>19000000</v>
       </c>
       <c r="G14" s="1">
-        <v>8500000</v>
+        <v>19000000</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1">
-        <v>19000000</v>
+        <v>76000000</v>
       </c>
       <c r="E15" s="1">
         <v>19000000</v>
       </c>
       <c r="F15" s="1">
-        <v>19000000</v>
+        <v>42000000</v>
       </c>
       <c r="G15" s="1">
-        <v>19000000</v>
+        <v>38000000</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1">
-        <v>76000000</v>
+        <v>51100000</v>
       </c>
       <c r="E16" s="1">
-        <v>19000000</v>
+        <v>17033333</v>
       </c>
       <c r="F16" s="1">
-        <v>42000000</v>
+        <v>34000000</v>
       </c>
       <c r="G16" s="1">
-        <v>38000000</v>
+        <v>34000000</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
-        <v>51100000</v>
+        <v>68000000</v>
       </c>
       <c r="E17" s="1">
-        <v>17033333</v>
+        <v>17000000</v>
       </c>
       <c r="F17" s="1">
-        <v>34000000</v>
+        <v>27743000</v>
       </c>
       <c r="G17" s="1">
-        <v>34000000</v>
+        <v>17010000</v>
       </c>
       <c r="H17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1">
-        <v>68000000</v>
+        <v>45000000</v>
       </c>
       <c r="E18" s="1">
-        <v>17000000</v>
+        <v>15000000</v>
       </c>
       <c r="F18" s="1">
-        <v>27743000</v>
+        <v>32000000</v>
       </c>
       <c r="G18" s="1">
-        <v>17010000</v>
+        <v>16600000</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1">
-        <v>45000000</v>
+        <v>43500000</v>
       </c>
       <c r="E19" s="1">
-        <v>15000000</v>
+        <v>14500000</v>
       </c>
       <c r="F19" s="1">
-        <v>32000000</v>
+        <v>28000000</v>
       </c>
       <c r="G19" s="1">
-        <v>16600000</v>
+        <v>28000000</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1">
-        <v>43500000</v>
+        <v>54000000</v>
       </c>
       <c r="E20" s="1">
-        <v>14500000</v>
+        <v>13500000</v>
       </c>
       <c r="F20" s="1">
-        <v>28000000</v>
+        <v>31731111</v>
       </c>
       <c r="G20" s="1">
-        <v>28000000</v>
+        <v>16731111</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1">
-        <v>54000000</v>
+        <v>40000000</v>
       </c>
       <c r="E21" s="1">
-        <v>13500000</v>
+        <v>13333333</v>
       </c>
       <c r="F21" s="1">
-        <v>31731111</v>
+        <v>30000000</v>
       </c>
       <c r="G21" s="1">
-        <v>16731111</v>
+        <v>30000000</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1">
-        <v>40000000</v>
+        <v>26500000</v>
       </c>
       <c r="E22" s="1">
-        <v>13333333</v>
+        <v>13250000</v>
       </c>
       <c r="F22" s="1">
-        <v>30000000</v>
+        <v>15982647</v>
       </c>
       <c r="G22" s="1">
-        <v>30000000</v>
+        <v>28482647</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1">
-        <v>26500000</v>
+        <v>13000000</v>
       </c>
       <c r="E23" s="1">
-        <v>13250000</v>
+        <v>13000000</v>
       </c>
       <c r="F23" s="1">
-        <v>15982647</v>
+        <v>12550000</v>
       </c>
       <c r="G23" s="1">
-        <v>28482647</v>
+        <v>12550000</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1">
-        <v>13000000</v>
+        <v>52000000</v>
       </c>
       <c r="E24" s="1">
         <v>13000000</v>
       </c>
       <c r="F24" s="1">
-        <v>12550000</v>
+        <v>35300000</v>
       </c>
       <c r="G24" s="1">
-        <v>12550000</v>
+        <v>22130000</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1">
-        <v>52000000</v>
+        <v>23000000</v>
       </c>
       <c r="E25" s="1">
-        <v>13000000</v>
+        <v>11500000</v>
       </c>
       <c r="F25" s="1">
-        <v>35300000</v>
+        <v>12000000</v>
       </c>
       <c r="G25" s="1">
-        <v>22130000</v>
+        <v>12000000</v>
       </c>
       <c r="H25" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>33</v>
       </c>
       <c r="D26" s="1">
-        <v>23000000</v>
+        <v>22500000</v>
       </c>
       <c r="E26" s="1">
-        <v>11500000</v>
+        <v>11250000</v>
       </c>
       <c r="F26" s="1">
-        <v>12000000</v>
+        <v>14000000</v>
       </c>
       <c r="G26" s="1">
-        <v>12000000</v>
+        <v>14000000</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1">
-        <v>22500000</v>
+        <v>33000000</v>
       </c>
       <c r="E27" s="1">
-        <v>11250000</v>
+        <v>11000000</v>
       </c>
       <c r="F27" s="1">
-        <v>14000000</v>
+        <v>22125000</v>
       </c>
       <c r="G27" s="1">
-        <v>14000000</v>
+        <v>16125000</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1">
-        <v>33000000</v>
+        <v>31000000</v>
       </c>
       <c r="E28" s="1">
-        <v>11000000</v>
+        <v>10333333</v>
       </c>
       <c r="F28" s="1">
-        <v>22125000</v>
+        <v>19125000</v>
       </c>
       <c r="G28" s="1">
-        <v>16125000</v>
+        <v>14625000</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1">
-        <v>31000000</v>
+        <v>10000000</v>
       </c>
       <c r="E29" s="1">
-        <v>10333333</v>
+        <v>10000000</v>
       </c>
       <c r="F29" s="1">
-        <v>19125000</v>
+        <v>9500000</v>
       </c>
       <c r="G29" s="1">
-        <v>14625000</v>
+        <v>9500000</v>
       </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1">
-        <v>10000000</v>
+        <v>20000000</v>
       </c>
       <c r="E30" s="1">
         <v>10000000</v>
       </c>
       <c r="F30" s="1">
-        <v>9500000</v>
+        <v>12000000</v>
       </c>
       <c r="G30" s="1">
-        <v>9500000</v>
+        <v>12000000</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1">
         <v>20000000</v>
@@ -2111,18 +2117,18 @@
         <v>12000000</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1">
         <v>20000000</v>
@@ -2131,24 +2137,24 @@
         <v>10000000</v>
       </c>
       <c r="F32" s="1">
-        <v>12000000</v>
+        <v>13000000</v>
       </c>
       <c r="G32" s="1">
-        <v>12000000</v>
+        <v>10000000</v>
       </c>
       <c r="H32" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D33" s="1">
         <v>20000000</v>
@@ -2157,154 +2163,154 @@
         <v>10000000</v>
       </c>
       <c r="F33" s="1">
-        <v>13000000</v>
+        <v>10500000</v>
       </c>
       <c r="G33" s="1">
-        <v>10000000</v>
+        <v>10500000</v>
       </c>
       <c r="H33" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1">
-        <v>20000000</v>
+        <v>37372624</v>
       </c>
       <c r="E34" s="1">
-        <v>10000000</v>
+        <v>9343156</v>
       </c>
       <c r="F34" s="1">
-        <v>10500000</v>
+        <v>37372624</v>
       </c>
       <c r="G34" s="1">
-        <v>10500000</v>
+        <v>37372624</v>
       </c>
       <c r="H34" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D35" s="1">
-        <v>37372624</v>
+        <v>18000000</v>
       </c>
       <c r="E35" s="1">
-        <v>9343156</v>
+        <v>9000000</v>
       </c>
       <c r="F35" s="1">
-        <v>37372624</v>
+        <v>12390000</v>
       </c>
       <c r="G35" s="1">
-        <v>37372624</v>
+        <v>9390000</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36" s="1">
-        <v>18000000</v>
+        <v>35715388</v>
       </c>
       <c r="E36" s="1">
-        <v>9000000</v>
+        <v>8928847</v>
       </c>
       <c r="F36" s="1">
-        <v>12390000</v>
+        <v>35715388</v>
       </c>
       <c r="G36" s="1">
-        <v>9390000</v>
+        <v>35715388</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1">
-        <v>35715388</v>
+        <v>35212818</v>
       </c>
       <c r="E37" s="1">
-        <v>8928847</v>
+        <v>8803205</v>
       </c>
       <c r="F37" s="1">
-        <v>35715388</v>
+        <v>35212818</v>
       </c>
       <c r="G37" s="1">
-        <v>35715388</v>
+        <v>35212818</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D38" s="1">
-        <v>35212818</v>
+        <v>24000000</v>
       </c>
       <c r="E38" s="1">
-        <v>8803205</v>
+        <v>8000000</v>
       </c>
       <c r="F38" s="1">
-        <v>35212818</v>
+        <v>13000000</v>
       </c>
       <c r="G38" s="1">
-        <v>35212818</v>
+        <v>13000000</v>
       </c>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D39" s="1">
         <v>24000000</v>
@@ -2313,258 +2319,258 @@
         <v>8000000</v>
       </c>
       <c r="F39" s="1">
-        <v>13000000</v>
+        <v>10755000</v>
       </c>
       <c r="G39" s="1">
-        <v>13000000</v>
+        <v>10755000</v>
       </c>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1">
-        <v>24000000</v>
+        <v>16000000</v>
       </c>
       <c r="E40" s="1">
         <v>8000000</v>
       </c>
       <c r="F40" s="1">
-        <v>10755000</v>
+        <v>8600000</v>
       </c>
       <c r="G40" s="1">
-        <v>10755000</v>
+        <v>8600000</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1">
-        <v>16000000</v>
+        <v>31339040</v>
       </c>
       <c r="E41" s="1">
-        <v>8000000</v>
+        <v>7834760</v>
       </c>
       <c r="F41" s="1">
-        <v>8600000</v>
+        <v>31339040</v>
       </c>
       <c r="G41" s="1">
-        <v>8600000</v>
+        <v>31339040</v>
       </c>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D42" s="1">
-        <v>31339040</v>
+        <v>15000000</v>
       </c>
       <c r="E42" s="1">
-        <v>7834760</v>
+        <v>7500000</v>
       </c>
       <c r="F42" s="1">
-        <v>31339040</v>
+        <v>10000000</v>
       </c>
       <c r="G42" s="1">
-        <v>31339040</v>
+        <v>8000000</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C43">
         <v>29</v>
       </c>
       <c r="D43" s="1">
-        <v>15000000</v>
+        <v>21000000</v>
       </c>
       <c r="E43" s="1">
-        <v>7500000</v>
+        <v>7000000</v>
       </c>
       <c r="F43" s="1">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="G43" s="1">
-        <v>8000000</v>
+        <v>13000000</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>29</v>
       </c>
       <c r="D44" s="1">
-        <v>21000000</v>
+        <v>6500000</v>
       </c>
       <c r="E44" s="1">
-        <v>7000000</v>
+        <v>6500000</v>
       </c>
       <c r="F44" s="1">
-        <v>13000000</v>
+        <v>3000000</v>
       </c>
       <c r="G44" s="1">
-        <v>13000000</v>
+        <v>3000000</v>
       </c>
       <c r="H44" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="C45">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" s="1">
-        <v>6500000</v>
+        <v>19000000</v>
       </c>
       <c r="E45" s="1">
-        <v>6500000</v>
+        <v>6333333</v>
       </c>
       <c r="F45" s="1">
-        <v>3000000</v>
+        <v>12490000</v>
       </c>
       <c r="G45" s="1">
-        <v>3000000</v>
+        <v>10830000</v>
       </c>
       <c r="H45" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
         <v>25</v>
       </c>
-      <c r="C46">
-        <v>30</v>
-      </c>
       <c r="D46" s="1">
-        <v>19000000</v>
+        <v>25005500</v>
       </c>
       <c r="E46" s="1">
-        <v>6333333</v>
+        <v>6251375</v>
       </c>
       <c r="F46" s="1">
-        <v>12490000</v>
+        <v>25005500</v>
       </c>
       <c r="G46" s="1">
-        <v>10830000</v>
+        <v>25005500</v>
       </c>
       <c r="H46" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D47" s="1">
-        <v>25005500</v>
+        <v>12500000</v>
       </c>
       <c r="E47" s="1">
-        <v>6251375</v>
+        <v>6250000</v>
       </c>
       <c r="F47" s="1">
-        <v>25005500</v>
+        <v>1250000</v>
       </c>
       <c r="G47" s="1">
-        <v>25005500</v>
+        <v>1250000</v>
       </c>
       <c r="H47" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D48" s="1">
-        <v>12500000</v>
+        <v>12000000</v>
       </c>
       <c r="E48" s="1">
-        <v>6250000</v>
+        <v>6000000</v>
       </c>
       <c r="F48" s="1">
-        <v>1250000</v>
+        <v>7700000</v>
       </c>
       <c r="G48" s="1">
-        <v>1250000</v>
+        <v>6700000</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D49" s="1">
         <v>12000000</v>
@@ -2573,102 +2579,102 @@
         <v>6000000</v>
       </c>
       <c r="F49" s="1">
-        <v>7700000</v>
+        <v>10060000</v>
       </c>
       <c r="G49" s="1">
-        <v>6700000</v>
+        <v>6560000</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D50" s="1">
-        <v>12000000</v>
+        <v>22000000</v>
       </c>
       <c r="E50" s="1">
-        <v>6000000</v>
+        <v>5500000</v>
       </c>
       <c r="F50" s="1">
-        <v>10060000</v>
+        <v>10000000</v>
       </c>
       <c r="G50" s="1">
-        <v>6560000</v>
+        <v>10000000</v>
       </c>
       <c r="H50" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C51">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D51" s="1">
-        <v>22000000</v>
+        <v>10000000</v>
       </c>
       <c r="E51" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="F51" s="1">
         <v>5500000</v>
       </c>
-      <c r="F51" s="1">
-        <v>10000000</v>
-      </c>
       <c r="G51" s="1">
-        <v>10000000</v>
+        <v>5500000</v>
       </c>
       <c r="H51" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C52">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D52" s="1">
-        <v>10000000</v>
+        <v>9000000</v>
       </c>
       <c r="E52" s="1">
-        <v>5000000</v>
+        <v>4500000</v>
       </c>
       <c r="F52" s="1">
-        <v>5500000</v>
+        <v>5250000</v>
       </c>
       <c r="G52" s="1">
-        <v>5500000</v>
+        <v>5250000</v>
       </c>
       <c r="H52" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C53">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D53" s="1">
         <v>9000000</v>
@@ -2683,82 +2689,82 @@
         <v>5250000</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D54" s="1">
-        <v>9000000</v>
+        <v>17388096</v>
       </c>
       <c r="E54" s="1">
-        <v>4500000</v>
+        <v>4347024</v>
       </c>
       <c r="F54" s="1">
-        <v>5250000</v>
+        <v>17388096</v>
       </c>
       <c r="G54" s="1">
-        <v>5250000</v>
+        <v>17388096</v>
       </c>
       <c r="H54" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D55" s="1">
-        <v>17388096</v>
+        <v>17079792</v>
       </c>
       <c r="E55" s="1">
-        <v>4347024</v>
+        <v>4269948</v>
       </c>
       <c r="F55" s="1">
-        <v>17388096</v>
+        <v>17079792</v>
       </c>
       <c r="G55" s="1">
-        <v>17388096</v>
+        <v>17079792</v>
       </c>
       <c r="H55" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" s="1">
-        <v>17079792</v>
+        <v>17031894</v>
       </c>
       <c r="E56" s="1">
-        <v>4269948</v>
+        <v>4257974</v>
       </c>
       <c r="F56" s="1">
-        <v>17079792</v>
+        <v>17031894</v>
       </c>
       <c r="G56" s="1">
-        <v>17079792</v>
+        <v>17031894</v>
       </c>
       <c r="H56" t="s">
         <v>23</v>
@@ -2766,325 +2772,325 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C57">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D57" s="1">
-        <v>17031894</v>
+        <v>16321664</v>
       </c>
       <c r="E57" s="1">
-        <v>4257974</v>
+        <v>4080416</v>
       </c>
       <c r="F57" s="1">
-        <v>17031894</v>
+        <v>16321664</v>
       </c>
       <c r="G57" s="1">
-        <v>17031894</v>
+        <v>16321664</v>
       </c>
       <c r="H57" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="C58">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D58" s="1">
-        <v>16321664</v>
+        <v>4000000</v>
       </c>
       <c r="E58" s="1">
-        <v>4080416</v>
+        <v>4000000</v>
       </c>
       <c r="F58" s="1">
-        <v>16321664</v>
+        <v>4000000</v>
       </c>
       <c r="G58" s="1">
-        <v>16321664</v>
+        <v>4000000</v>
       </c>
       <c r="H58" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C59">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1">
-        <v>4000000</v>
+        <v>12000000</v>
       </c>
       <c r="E59" s="1">
         <v>4000000</v>
       </c>
       <c r="F59" s="1">
-        <v>4000000</v>
+        <v>5500000</v>
       </c>
       <c r="G59" s="1">
-        <v>4000000</v>
+        <v>5500000</v>
       </c>
       <c r="H59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="C60">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D60" s="1">
-        <v>12000000</v>
+        <v>15766862</v>
       </c>
       <c r="E60" s="1">
-        <v>4000000</v>
+        <v>3941716</v>
       </c>
       <c r="F60" s="1">
-        <v>5500000</v>
+        <v>15766862</v>
       </c>
       <c r="G60" s="1">
-        <v>5500000</v>
+        <v>15766862</v>
       </c>
       <c r="H60" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="C61">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D61" s="1">
-        <v>15766862</v>
+        <v>15134346</v>
       </c>
       <c r="E61" s="1">
-        <v>3941716</v>
+        <v>3783587</v>
       </c>
       <c r="F61" s="1">
-        <v>15766862</v>
+        <v>15134346</v>
       </c>
       <c r="G61" s="1">
-        <v>15766862</v>
+        <v>15134346</v>
       </c>
       <c r="H61" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C62">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D62" s="1">
-        <v>15134346</v>
+        <v>3750000</v>
       </c>
       <c r="E62" s="1">
-        <v>3783587</v>
+        <v>3750000</v>
       </c>
       <c r="F62" s="1">
-        <v>15134346</v>
+        <v>3050000</v>
       </c>
       <c r="G62" s="1">
-        <v>15134346</v>
+        <v>3050000</v>
       </c>
       <c r="H62" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C63">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D63" s="1">
-        <v>3750000</v>
+        <v>14976228</v>
       </c>
       <c r="E63" s="1">
-        <v>3750000</v>
+        <v>3744057</v>
       </c>
       <c r="F63" s="1">
-        <v>3050000</v>
+        <v>14976228</v>
       </c>
       <c r="G63" s="1">
-        <v>3050000</v>
+        <v>14976228</v>
       </c>
       <c r="H63" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C64">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D64" s="1">
-        <v>14976228</v>
+        <v>14018206</v>
       </c>
       <c r="E64" s="1">
-        <v>3744057</v>
+        <v>3504552</v>
       </c>
       <c r="F64" s="1">
-        <v>14976228</v>
+        <v>14018206</v>
       </c>
       <c r="G64" s="1">
-        <v>14976228</v>
+        <v>14018206</v>
       </c>
       <c r="H64" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65" s="1">
-        <v>14018206</v>
+        <v>13644836</v>
       </c>
       <c r="E65" s="1">
-        <v>3504552</v>
+        <v>3411209</v>
       </c>
       <c r="F65" s="1">
-        <v>14018206</v>
+        <v>13644836</v>
       </c>
       <c r="G65" s="1">
-        <v>14018206</v>
+        <v>13644836</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C66">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D66" s="1">
-        <v>13644836</v>
+        <v>10000000</v>
       </c>
       <c r="E66" s="1">
-        <v>3411209</v>
+        <v>3333333</v>
       </c>
       <c r="F66" s="1">
-        <v>13644836</v>
+        <v>3750000</v>
       </c>
       <c r="G66" s="1">
-        <v>13644836</v>
+        <v>3250000</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C67">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D67" s="1">
-        <v>10000000</v>
+        <v>13087444</v>
       </c>
       <c r="E67" s="1">
-        <v>3333333</v>
+        <v>3271861</v>
       </c>
       <c r="F67" s="1">
-        <v>3750000</v>
+        <v>13087444</v>
       </c>
       <c r="G67" s="1">
-        <v>3250000</v>
+        <v>13087444</v>
       </c>
       <c r="H67" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="C68">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D68" s="1">
-        <v>13087444</v>
+        <v>3250000</v>
       </c>
       <c r="E68" s="1">
-        <v>3271861</v>
+        <v>3250000</v>
       </c>
       <c r="F68" s="1">
-        <v>13087444</v>
+        <v>1430000</v>
       </c>
       <c r="G68" s="1">
-        <v>13087444</v>
+        <v>1430000</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" s="1">
         <v>3250000</v>
@@ -3093,62 +3099,62 @@
         <v>3250000</v>
       </c>
       <c r="F69" s="1">
-        <v>1430000</v>
+        <v>2000000</v>
       </c>
       <c r="G69" s="1">
-        <v>1430000</v>
+        <v>2000000</v>
       </c>
       <c r="H69" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C70">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D70" s="1">
-        <v>3250000</v>
+        <v>12587256</v>
       </c>
       <c r="E70" s="1">
-        <v>3250000</v>
+        <v>3146814</v>
       </c>
       <c r="F70" s="1">
-        <v>2000000</v>
+        <v>12587256</v>
       </c>
       <c r="G70" s="1">
-        <v>2000000</v>
+        <v>12587256</v>
       </c>
       <c r="H70" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C71">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D71" s="1">
-        <v>12587256</v>
+        <v>3136000</v>
       </c>
       <c r="E71" s="1">
-        <v>3146814</v>
+        <v>3136000</v>
       </c>
       <c r="F71" s="1">
-        <v>12587256</v>
+        <v>20000</v>
       </c>
       <c r="G71" s="1">
-        <v>12587256</v>
+        <v>20000</v>
       </c>
       <c r="H71" t="s">
         <v>52</v>
@@ -3156,129 +3162,129 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C72">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D72" s="1">
-        <v>3136000</v>
+        <v>12524736</v>
       </c>
       <c r="E72" s="1">
-        <v>3136000</v>
+        <v>3131184</v>
       </c>
       <c r="F72" s="1">
-        <v>20000</v>
+        <v>12524736</v>
       </c>
       <c r="G72" s="1">
-        <v>20000</v>
+        <v>12524736</v>
       </c>
       <c r="H72" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C73">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D73" s="1">
-        <v>12524736</v>
+        <v>6000000</v>
       </c>
       <c r="E73" s="1">
-        <v>3131184</v>
+        <v>3000000</v>
       </c>
       <c r="F73" s="1">
-        <v>12524736</v>
+        <v>2745000</v>
       </c>
       <c r="G73" s="1">
-        <v>12524736</v>
+        <v>2745000</v>
       </c>
       <c r="H73" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C74">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D74" s="1">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="E74" s="1">
         <v>3000000</v>
       </c>
       <c r="F74" s="1">
-        <v>2745000</v>
+        <v>2300000</v>
       </c>
       <c r="G74" s="1">
-        <v>2745000</v>
+        <v>2300000</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C75">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D75" s="1">
-        <v>3000000</v>
+        <v>11992416</v>
       </c>
       <c r="E75" s="1">
-        <v>3000000</v>
+        <v>2998104</v>
       </c>
       <c r="F75" s="1">
-        <v>2300000</v>
+        <v>11992416</v>
       </c>
       <c r="G75" s="1">
-        <v>2300000</v>
+        <v>11992416</v>
       </c>
       <c r="H75" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C76">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D76" s="1">
-        <v>11992416</v>
+        <v>2985000</v>
       </c>
       <c r="E76" s="1">
-        <v>2998104</v>
+        <v>2985000</v>
       </c>
       <c r="F76" s="1">
-        <v>11992416</v>
+        <v>0</v>
       </c>
       <c r="G76" s="1">
-        <v>11992416</v>
+        <v>0</v>
       </c>
       <c r="H76" t="s">
         <v>52</v>
@@ -3286,701 +3292,701 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="C77">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D77" s="1">
-        <v>2985000</v>
+        <v>11935476</v>
       </c>
       <c r="E77" s="1">
-        <v>2985000</v>
+        <v>2983869</v>
       </c>
       <c r="F77" s="1">
-        <v>0</v>
+        <v>11935476</v>
       </c>
       <c r="G77" s="1">
-        <v>0</v>
+        <v>11935476</v>
       </c>
       <c r="H77" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C78">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D78" s="1">
-        <v>11935476</v>
+        <v>11817820</v>
       </c>
       <c r="E78" s="1">
-        <v>2983869</v>
+        <v>2954455</v>
       </c>
       <c r="F78" s="1">
-        <v>11935476</v>
+        <v>11817820</v>
       </c>
       <c r="G78" s="1">
-        <v>11935476</v>
+        <v>11817820</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C79">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D79" s="1">
-        <v>11817820</v>
+        <v>11608190</v>
       </c>
       <c r="E79" s="1">
-        <v>2954455</v>
+        <v>2902048</v>
       </c>
       <c r="F79" s="1">
-        <v>11817820</v>
+        <v>11367075</v>
       </c>
       <c r="G79" s="1">
-        <v>11817820</v>
+        <v>11367075</v>
       </c>
       <c r="H79" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C80">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D80" s="1">
-        <v>11608190</v>
+        <v>11342390</v>
       </c>
       <c r="E80" s="1">
-        <v>2902048</v>
+        <v>2835597</v>
       </c>
       <c r="F80" s="1">
-        <v>11367075</v>
+        <v>10985701</v>
       </c>
       <c r="G80" s="1">
-        <v>11367075</v>
+        <v>10985701</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C81">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D81" s="1">
-        <v>11342390</v>
+        <v>11171244</v>
       </c>
       <c r="E81" s="1">
-        <v>2835597</v>
+        <v>2792811</v>
       </c>
       <c r="F81" s="1">
-        <v>10985701</v>
+        <v>10690907</v>
       </c>
       <c r="G81" s="1">
-        <v>10985701</v>
+        <v>10690907</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C82">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D82" s="1">
-        <v>11171244</v>
+        <v>2500000</v>
       </c>
       <c r="E82" s="1">
-        <v>2792811</v>
+        <v>2500000</v>
       </c>
       <c r="F82" s="1">
-        <v>10690907</v>
+        <v>1750000</v>
       </c>
       <c r="G82" s="1">
-        <v>10690907</v>
+        <v>1750000</v>
       </c>
       <c r="H82" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C83">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D83" s="1">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
       <c r="E83" s="1">
         <v>2500000</v>
       </c>
       <c r="F83" s="1">
-        <v>1750000</v>
+        <v>2500000</v>
       </c>
       <c r="G83" s="1">
-        <v>1750000</v>
+        <v>2500000</v>
       </c>
       <c r="H83" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C84">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D84" s="1">
-        <v>5000000</v>
+        <v>9115604</v>
       </c>
       <c r="E84" s="1">
-        <v>2500000</v>
+        <v>2278901</v>
       </c>
       <c r="F84" s="1">
-        <v>2500000</v>
+        <v>7222566</v>
       </c>
       <c r="G84" s="1">
-        <v>2500000</v>
+        <v>7222566</v>
       </c>
       <c r="H84" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C85">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D85" s="1">
-        <v>9115604</v>
+        <v>8818692</v>
       </c>
       <c r="E85" s="1">
-        <v>2278901</v>
+        <v>2204673</v>
       </c>
       <c r="F85" s="1">
-        <v>7222566</v>
+        <v>6911142</v>
       </c>
       <c r="G85" s="1">
-        <v>7222566</v>
+        <v>6911142</v>
       </c>
       <c r="H85" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C86">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D86" s="1">
-        <v>8818692</v>
+        <v>8734722</v>
       </c>
       <c r="E86" s="1">
-        <v>2204673</v>
+        <v>2183681</v>
       </c>
       <c r="F86" s="1">
-        <v>6911142</v>
+        <v>6731557</v>
       </c>
       <c r="G86" s="1">
-        <v>6911142</v>
+        <v>6731557</v>
       </c>
       <c r="H86" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C87">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D87" s="1">
-        <v>8734722</v>
+        <v>8597614</v>
       </c>
       <c r="E87" s="1">
-        <v>2183681</v>
+        <v>2149404</v>
       </c>
       <c r="F87" s="1">
-        <v>6731557</v>
+        <v>6532849</v>
       </c>
       <c r="G87" s="1">
-        <v>6731557</v>
+        <v>6532849</v>
       </c>
       <c r="H87" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C88">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D88" s="1">
-        <v>8597614</v>
+        <v>8562260</v>
       </c>
       <c r="E88" s="1">
-        <v>2149404</v>
+        <v>2140565</v>
       </c>
       <c r="F88" s="1">
-        <v>6532849</v>
+        <v>6319290</v>
       </c>
       <c r="G88" s="1">
-        <v>6532849</v>
+        <v>6319290</v>
       </c>
       <c r="H88" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C89">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D89" s="1">
-        <v>8562260</v>
+        <v>2000000</v>
       </c>
       <c r="E89" s="1">
-        <v>2140565</v>
+        <v>2000000</v>
       </c>
       <c r="F89" s="1">
-        <v>6319290</v>
+        <v>1000000</v>
       </c>
       <c r="G89" s="1">
-        <v>6319290</v>
+        <v>1000000</v>
       </c>
       <c r="H89" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C90">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D90" s="1">
-        <v>2000000</v>
+        <v>7909124</v>
       </c>
       <c r="E90" s="1">
-        <v>2000000</v>
+        <v>1977281</v>
       </c>
       <c r="F90" s="1">
-        <v>1000000</v>
+        <v>5401594</v>
       </c>
       <c r="G90" s="1">
-        <v>1000000</v>
+        <v>5401594</v>
       </c>
       <c r="H90" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C91">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D91" s="1">
-        <v>7909124</v>
+        <v>7790170</v>
       </c>
       <c r="E91" s="1">
-        <v>1977281</v>
+        <v>1947543</v>
       </c>
       <c r="F91" s="1">
-        <v>5401594</v>
+        <v>5321683</v>
       </c>
       <c r="G91" s="1">
-        <v>5401594</v>
+        <v>5321683</v>
       </c>
       <c r="H91" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C92">
         <v>26</v>
       </c>
       <c r="D92" s="1">
-        <v>7790170</v>
+        <v>7735658</v>
       </c>
       <c r="E92" s="1">
-        <v>1947543</v>
+        <v>1933915</v>
       </c>
       <c r="F92" s="1">
-        <v>5321683</v>
+        <v>4842553</v>
       </c>
       <c r="G92" s="1">
-        <v>5321683</v>
+        <v>4842553</v>
       </c>
       <c r="H92" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C93">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D93" s="1">
-        <v>7735658</v>
+        <v>1790000</v>
       </c>
       <c r="E93" s="1">
-        <v>1933915</v>
+        <v>1790000</v>
       </c>
       <c r="F93" s="1">
-        <v>4842553</v>
+        <v>1000000</v>
       </c>
       <c r="G93" s="1">
-        <v>4842553</v>
+        <v>1000000</v>
       </c>
       <c r="H93" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C94">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D94" s="1">
-        <v>1790000</v>
+        <v>1765000</v>
       </c>
       <c r="E94" s="1">
-        <v>1790000</v>
+        <v>1765000</v>
       </c>
       <c r="F94" s="1">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="G94" s="1">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="H94" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B95" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C95">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D95" s="1">
-        <v>1765000</v>
+        <v>6832646</v>
       </c>
       <c r="E95" s="1">
-        <v>1765000</v>
+        <v>1708162</v>
       </c>
       <c r="F95" s="1">
-        <v>300000</v>
+        <v>4011379</v>
       </c>
       <c r="G95" s="1">
-        <v>300000</v>
+        <v>4011379</v>
       </c>
       <c r="H95" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B96" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C96">
         <v>24</v>
       </c>
       <c r="D96" s="1">
-        <v>6832646</v>
+        <v>6785196</v>
       </c>
       <c r="E96" s="1">
-        <v>1708162</v>
+        <v>1696299</v>
       </c>
       <c r="F96" s="1">
-        <v>4011379</v>
+        <v>3885353</v>
       </c>
       <c r="G96" s="1">
-        <v>4011379</v>
+        <v>3885353</v>
       </c>
       <c r="H96" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="C97">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D97" s="1">
-        <v>6785196</v>
+        <v>6774914</v>
       </c>
       <c r="E97" s="1">
-        <v>1696299</v>
+        <v>1693729</v>
       </c>
       <c r="F97" s="1">
-        <v>3885353</v>
+        <v>3915159</v>
       </c>
       <c r="G97" s="1">
-        <v>3885353</v>
+        <v>3915159</v>
       </c>
       <c r="H97" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C98">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D98" s="1">
-        <v>6774914</v>
+        <v>6571382</v>
       </c>
       <c r="E98" s="1">
-        <v>1693729</v>
+        <v>1642846</v>
       </c>
       <c r="F98" s="1">
-        <v>3915159</v>
+        <v>3577887</v>
       </c>
       <c r="G98" s="1">
-        <v>3915159</v>
+        <v>3577887</v>
       </c>
       <c r="H98" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C99">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D99" s="1">
-        <v>6571382</v>
+        <v>6224254</v>
       </c>
       <c r="E99" s="1">
-        <v>1642846</v>
+        <v>1556064</v>
       </c>
       <c r="F99" s="1">
-        <v>3577887</v>
+        <v>3399649</v>
       </c>
       <c r="G99" s="1">
-        <v>3577887</v>
+        <v>3399649</v>
       </c>
       <c r="H99" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C100">
         <v>26</v>
       </c>
       <c r="D100" s="1">
-        <v>6224254</v>
+        <v>6177530</v>
       </c>
       <c r="E100" s="1">
-        <v>1556064</v>
+        <v>1544383</v>
       </c>
       <c r="F100" s="1">
-        <v>3399649</v>
+        <v>3453545</v>
       </c>
       <c r="G100" s="1">
-        <v>3399649</v>
+        <v>3453545</v>
       </c>
       <c r="H100" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C101">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D101" s="1">
-        <v>6177530</v>
+        <v>5929734</v>
       </c>
       <c r="E101" s="1">
-        <v>1544383</v>
+        <v>1482434</v>
       </c>
       <c r="F101" s="1">
-        <v>3453545</v>
+        <v>1132536</v>
       </c>
       <c r="G101" s="1">
-        <v>3453545</v>
+        <v>1132536</v>
       </c>
       <c r="H101" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B102" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C102">
         <v>24</v>
       </c>
       <c r="D102" s="1">
-        <v>5929734</v>
+        <v>5892392</v>
       </c>
       <c r="E102" s="1">
-        <v>1482434</v>
+        <v>1473098</v>
       </c>
       <c r="F102" s="1">
-        <v>1132536</v>
+        <v>3143212</v>
       </c>
       <c r="G102" s="1">
-        <v>1132536</v>
+        <v>3143212</v>
       </c>
       <c r="H102" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C103">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D103" s="1">
-        <v>5892392</v>
+        <v>5870714</v>
       </c>
       <c r="E103" s="1">
-        <v>1473098</v>
+        <v>1467679</v>
       </c>
       <c r="F103" s="1">
-        <v>3143212</v>
+        <v>1089608</v>
       </c>
       <c r="G103" s="1">
-        <v>3143212</v>
+        <v>1089608</v>
       </c>
       <c r="H103" t="s">
         <v>23</v>
@@ -3988,51 +3994,51 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C104">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D104" s="1">
-        <v>5870714</v>
+        <v>5801888</v>
       </c>
       <c r="E104" s="1">
-        <v>1467679</v>
+        <v>1450472</v>
       </c>
       <c r="F104" s="1">
-        <v>1089608</v>
+        <v>3073278</v>
       </c>
       <c r="G104" s="1">
-        <v>1089608</v>
+        <v>3073278</v>
       </c>
       <c r="H104" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C105">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D105" s="1">
-        <v>5801888</v>
+        <v>5648034</v>
       </c>
       <c r="E105" s="1">
-        <v>1450472</v>
+        <v>1412009</v>
       </c>
       <c r="F105" s="1">
-        <v>3073278</v>
+        <v>927660</v>
       </c>
       <c r="G105" s="1">
-        <v>3073278</v>
+        <v>927660</v>
       </c>
       <c r="H105" t="s">
         <v>23</v>
@@ -4040,273 +4046,273 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="C106">
         <v>24</v>
       </c>
       <c r="D106" s="1">
-        <v>5648034</v>
+        <v>5633034</v>
       </c>
       <c r="E106" s="1">
-        <v>1412009</v>
+        <v>1408259</v>
       </c>
       <c r="F106" s="1">
-        <v>927660</v>
+        <v>916752</v>
       </c>
       <c r="G106" s="1">
-        <v>927660</v>
+        <v>916752</v>
       </c>
       <c r="H106" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C107">
         <v>24</v>
       </c>
       <c r="D107" s="1">
-        <v>5633034</v>
+        <v>5568446</v>
       </c>
       <c r="E107" s="1">
-        <v>1408259</v>
+        <v>1392112</v>
       </c>
       <c r="F107" s="1">
-        <v>916752</v>
+        <v>1049780</v>
       </c>
       <c r="G107" s="1">
-        <v>916752</v>
+        <v>1049780</v>
       </c>
       <c r="H107" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C108">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D108" s="1">
-        <v>5568446</v>
+        <v>5555238</v>
       </c>
       <c r="E108" s="1">
-        <v>1392112</v>
+        <v>1388810</v>
       </c>
       <c r="F108" s="1">
-        <v>1049780</v>
+        <v>1040172</v>
       </c>
       <c r="G108" s="1">
-        <v>1049780</v>
+        <v>1040172</v>
       </c>
       <c r="H108" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C109">
         <v>27</v>
       </c>
       <c r="D109" s="1">
-        <v>5555238</v>
+        <v>5502988</v>
       </c>
       <c r="E109" s="1">
-        <v>1388810</v>
+        <v>1375747</v>
       </c>
       <c r="F109" s="1">
-        <v>1040172</v>
+        <v>1002172</v>
       </c>
       <c r="G109" s="1">
-        <v>1040172</v>
+        <v>1002172</v>
       </c>
       <c r="H109" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B110" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C110">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D110" s="1">
-        <v>5502988</v>
+        <v>5465412</v>
       </c>
       <c r="E110" s="1">
-        <v>1375747</v>
+        <v>1366353</v>
       </c>
       <c r="F110" s="1">
-        <v>1002172</v>
+        <v>974844</v>
       </c>
       <c r="G110" s="1">
-        <v>1002172</v>
+        <v>974844</v>
       </c>
       <c r="H110" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B111" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C111">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D111" s="1">
-        <v>5465412</v>
+        <v>5293574</v>
       </c>
       <c r="E111" s="1">
-        <v>1366353</v>
+        <v>1323394</v>
       </c>
       <c r="F111" s="1">
-        <v>974844</v>
+        <v>1029872</v>
       </c>
       <c r="G111" s="1">
-        <v>974844</v>
+        <v>1029872</v>
       </c>
       <c r="H111" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C112">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D112" s="1">
-        <v>5293574</v>
+        <v>5229582</v>
       </c>
       <c r="E112" s="1">
-        <v>1323394</v>
+        <v>1307396</v>
       </c>
       <c r="F112" s="1">
-        <v>1029872</v>
+        <v>983332</v>
       </c>
       <c r="G112" s="1">
-        <v>1029872</v>
+        <v>983332</v>
       </c>
       <c r="H112" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B113" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C113">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D113" s="1">
-        <v>5229582</v>
+        <v>2600000</v>
       </c>
       <c r="E113" s="1">
-        <v>1307396</v>
+        <v>1300000</v>
       </c>
       <c r="F113" s="1">
-        <v>983332</v>
+        <v>1300000</v>
       </c>
       <c r="G113" s="1">
-        <v>983332</v>
+        <v>1300000</v>
       </c>
       <c r="H113" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C114">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D114" s="1">
-        <v>2600000</v>
+        <v>5192616</v>
       </c>
       <c r="E114" s="1">
-        <v>1300000</v>
+        <v>1298154</v>
       </c>
       <c r="F114" s="1">
-        <v>1300000</v>
+        <v>1136448</v>
       </c>
       <c r="G114" s="1">
-        <v>1300000</v>
+        <v>1136448</v>
       </c>
       <c r="H114" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C115">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D115" s="1">
-        <v>5192616</v>
+        <v>1292500</v>
       </c>
       <c r="E115" s="1">
-        <v>1298154</v>
+        <v>1292500</v>
       </c>
       <c r="F115" s="1">
-        <v>1136448</v>
+        <v>167500</v>
       </c>
       <c r="G115" s="1">
-        <v>1136448</v>
+        <v>167500</v>
       </c>
       <c r="H115" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B116" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C116">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D116" s="1">
         <v>1292500</v>
@@ -4315,24 +4321,24 @@
         <v>1292500</v>
       </c>
       <c r="F116" s="1">
-        <v>167500</v>
+        <v>25000</v>
       </c>
       <c r="G116" s="1">
-        <v>167500</v>
+        <v>25000</v>
       </c>
       <c r="H116" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C117">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D117" s="1">
         <v>1292500</v>
@@ -4341,24 +4347,24 @@
         <v>1292500</v>
       </c>
       <c r="F117" s="1">
-        <v>25000</v>
+        <v>42500</v>
       </c>
       <c r="G117" s="1">
-        <v>25000</v>
+        <v>42500</v>
       </c>
       <c r="H117" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B118" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C118">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D118" s="1">
         <v>1292500</v>
@@ -4367,21 +4373,21 @@
         <v>1292500</v>
       </c>
       <c r="F118" s="1">
-        <v>42500</v>
+        <v>667500</v>
       </c>
       <c r="G118" s="1">
-        <v>42500</v>
+        <v>667500</v>
       </c>
       <c r="H118" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C119">
         <v>30</v>
@@ -4393,232 +4399,232 @@
         <v>1292500</v>
       </c>
       <c r="F119" s="1">
-        <v>667500</v>
+        <v>167500</v>
       </c>
       <c r="G119" s="1">
-        <v>667500</v>
+        <v>167500</v>
       </c>
       <c r="H119" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C120">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D120" s="1">
-        <v>1292500</v>
+        <v>5144340</v>
       </c>
       <c r="E120" s="1">
-        <v>1292500</v>
+        <v>1286085</v>
       </c>
       <c r="F120" s="1">
-        <v>167500</v>
+        <v>921336</v>
       </c>
       <c r="G120" s="1">
-        <v>167500</v>
+        <v>921336</v>
       </c>
       <c r="H120" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C121">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D121" s="1">
-        <v>5144340</v>
+        <v>4997960</v>
       </c>
       <c r="E121" s="1">
-        <v>1286085</v>
+        <v>1249490</v>
       </c>
       <c r="F121" s="1">
-        <v>921336</v>
+        <v>994880</v>
       </c>
       <c r="G121" s="1">
-        <v>921336</v>
+        <v>994880</v>
       </c>
       <c r="H121" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C122">
         <v>27</v>
       </c>
       <c r="D122" s="1">
-        <v>4997960</v>
+        <v>4916586</v>
       </c>
       <c r="E122" s="1">
-        <v>1249490</v>
+        <v>1229147</v>
       </c>
       <c r="F122" s="1">
-        <v>994880</v>
+        <v>935700</v>
       </c>
       <c r="G122" s="1">
-        <v>994880</v>
+        <v>935700</v>
       </c>
       <c r="H122" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C123">
         <v>27</v>
       </c>
       <c r="D123" s="1">
-        <v>4916586</v>
+        <v>4870096</v>
       </c>
       <c r="E123" s="1">
-        <v>1229147</v>
+        <v>1217524</v>
       </c>
       <c r="F123" s="1">
-        <v>935700</v>
+        <v>901888</v>
       </c>
       <c r="G123" s="1">
-        <v>935700</v>
+        <v>901888</v>
       </c>
       <c r="H123" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C124">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D124" s="1">
-        <v>4870096</v>
+        <v>4859012</v>
       </c>
       <c r="E124" s="1">
-        <v>1217524</v>
+        <v>1214753</v>
       </c>
       <c r="F124" s="1">
-        <v>901888</v>
+        <v>839012</v>
       </c>
       <c r="G124" s="1">
-        <v>901888</v>
+        <v>839012</v>
       </c>
       <c r="H124" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C125">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D125" s="1">
-        <v>4859012</v>
+        <v>1210000</v>
       </c>
       <c r="E125" s="1">
-        <v>1214753</v>
+        <v>1210000</v>
       </c>
       <c r="F125" s="1">
-        <v>839012</v>
+        <v>0</v>
       </c>
       <c r="G125" s="1">
-        <v>839012</v>
+        <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B126" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C126">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D126" s="1">
-        <v>1210000</v>
+        <v>1175000</v>
       </c>
       <c r="E126" s="1">
-        <v>1210000</v>
+        <v>1175000</v>
       </c>
       <c r="F126" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G126" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H126" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B127" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C127">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="1">
-        <v>1175000</v>
+        <v>1170000</v>
       </c>
       <c r="E127" s="1">
-        <v>1175000</v>
+        <v>1170000</v>
       </c>
       <c r="F127" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G127" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B128" t="s">
         <v>66</v>
       </c>
       <c r="C128">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="1">
         <v>1170000</v>
@@ -4633,160 +4639,160 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B129" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C129">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D129" s="1">
-        <v>1170000</v>
+        <v>4675775</v>
       </c>
       <c r="E129" s="1">
-        <v>1170000</v>
+        <v>1168944</v>
       </c>
       <c r="F129" s="1">
-        <v>0</v>
+        <v>840616</v>
       </c>
       <c r="G129" s="1">
-        <v>0</v>
+        <v>840616</v>
       </c>
       <c r="H129" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B130" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="C130">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D130" s="1">
-        <v>4675775</v>
+        <v>4641044</v>
       </c>
       <c r="E130" s="1">
-        <v>1168944</v>
+        <v>1160261</v>
       </c>
       <c r="F130" s="1">
-        <v>840616</v>
+        <v>801044</v>
       </c>
       <c r="G130" s="1">
-        <v>840616</v>
+        <v>801044</v>
       </c>
       <c r="H130" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C131">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D131" s="1">
-        <v>4641044</v>
+        <v>4636912</v>
       </c>
       <c r="E131" s="1">
-        <v>1160261</v>
+        <v>1159228</v>
       </c>
       <c r="F131" s="1">
-        <v>801044</v>
+        <v>796912</v>
       </c>
       <c r="G131" s="1">
-        <v>801044</v>
+        <v>796912</v>
       </c>
       <c r="H131" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B132" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C132">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D132" s="1">
-        <v>4636912</v>
+        <v>4560564</v>
       </c>
       <c r="E132" s="1">
-        <v>1159228</v>
+        <v>1140141</v>
       </c>
       <c r="F132" s="1">
-        <v>796912</v>
+        <v>720564</v>
       </c>
       <c r="G132" s="1">
-        <v>796912</v>
+        <v>720564</v>
       </c>
       <c r="H132" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B133" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="C133">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D133" s="1">
-        <v>4560564</v>
+        <v>4551928</v>
       </c>
       <c r="E133" s="1">
-        <v>1140141</v>
+        <v>1137982</v>
       </c>
       <c r="F133" s="1">
-        <v>720564</v>
+        <v>711928</v>
       </c>
       <c r="G133" s="1">
-        <v>720564</v>
+        <v>711928</v>
       </c>
       <c r="H133" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C134">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D134" s="1">
-        <v>4551928</v>
+        <v>1125000</v>
       </c>
       <c r="E134" s="1">
-        <v>1137982</v>
+        <v>1125000</v>
       </c>
       <c r="F134" s="1">
-        <v>711928</v>
+        <v>0</v>
       </c>
       <c r="G134" s="1">
-        <v>711928</v>
+        <v>0</v>
       </c>
       <c r="H134" t="s">
         <v>52</v>
@@ -4794,13 +4800,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C135">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D135" s="1">
         <v>1125000</v>
@@ -4815,18 +4821,18 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B136" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="C136">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D136" s="1">
         <v>1125000</v>
@@ -4841,18 +4847,18 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B137" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C137">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D137" s="1">
         <v>1125000</v>
@@ -4867,18 +4873,18 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B138" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C138">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D138" s="1">
         <v>1125000</v>
@@ -4893,18 +4899,18 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B139" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C139">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D139" s="1">
         <v>1125000</v>
@@ -4919,18 +4925,18 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B140" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C140">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D140" s="1">
         <v>1125000</v>
@@ -4945,70 +4951,70 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C141">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D141" s="1">
-        <v>1125000</v>
+        <v>4424096</v>
       </c>
       <c r="E141" s="1">
-        <v>1125000</v>
+        <v>1106024</v>
       </c>
       <c r="F141" s="1">
-        <v>0</v>
+        <v>764096</v>
       </c>
       <c r="G141" s="1">
-        <v>0</v>
+        <v>764096</v>
       </c>
       <c r="H141" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B142" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="C142">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D142" s="1">
-        <v>4424096</v>
+        <v>1100000</v>
       </c>
       <c r="E142" s="1">
-        <v>1106024</v>
+        <v>1100000</v>
       </c>
       <c r="F142" s="1">
-        <v>764096</v>
+        <v>0</v>
       </c>
       <c r="G142" s="1">
-        <v>764096</v>
+        <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C143">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D143" s="1">
         <v>1100000</v>
@@ -5023,21 +5029,21 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C144">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D144" s="1">
-        <v>1100000</v>
+        <v>3300000</v>
       </c>
       <c r="E144" s="1">
         <v>1100000</v>
@@ -5049,93 +5055,93 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B145" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="C145">
         <v>26</v>
       </c>
       <c r="D145" s="1">
-        <v>3300000</v>
+        <v>4392892</v>
       </c>
       <c r="E145" s="1">
-        <v>1100000</v>
+        <v>1098223</v>
       </c>
       <c r="F145" s="1">
-        <v>0</v>
+        <v>372892</v>
       </c>
       <c r="G145" s="1">
-        <v>0</v>
+        <v>372892</v>
       </c>
       <c r="H145" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B146" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C146">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D146" s="1">
-        <v>4392892</v>
+        <v>4369136</v>
       </c>
       <c r="E146" s="1">
-        <v>1098223</v>
+        <v>1092284</v>
       </c>
       <c r="F146" s="1">
-        <v>372892</v>
+        <v>349136</v>
       </c>
       <c r="G146" s="1">
-        <v>372892</v>
+        <v>349136</v>
       </c>
       <c r="H146" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B147" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C147">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D147" s="1">
-        <v>4369136</v>
+        <v>2175000</v>
       </c>
       <c r="E147" s="1">
-        <v>1092284</v>
+        <v>1087500</v>
       </c>
       <c r="F147" s="1">
-        <v>349136</v>
+        <v>0</v>
       </c>
       <c r="G147" s="1">
-        <v>349136</v>
+        <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C148">
         <v>27</v>
@@ -5153,353 +5159,353 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B149" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C149">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D149" s="1">
-        <v>2175000</v>
+        <v>4349368</v>
       </c>
       <c r="E149" s="1">
-        <v>1087500</v>
+        <v>1087342</v>
       </c>
       <c r="F149" s="1">
-        <v>0</v>
+        <v>329368</v>
       </c>
       <c r="G149" s="1">
-        <v>0</v>
+        <v>329368</v>
       </c>
       <c r="H149" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B150" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="C150">
         <v>25</v>
       </c>
       <c r="D150" s="1">
-        <v>4349368</v>
+        <v>4340872</v>
       </c>
       <c r="E150" s="1">
-        <v>1087342</v>
+        <v>1085218</v>
       </c>
       <c r="F150" s="1">
-        <v>329368</v>
+        <v>320872</v>
       </c>
       <c r="G150" s="1">
-        <v>329368</v>
+        <v>320872</v>
       </c>
       <c r="H150" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C151">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D151" s="1">
-        <v>4340872</v>
+        <v>4274276</v>
       </c>
       <c r="E151" s="1">
-        <v>1085218</v>
+        <v>1068569</v>
       </c>
       <c r="F151" s="1">
-        <v>320872</v>
+        <v>254276</v>
       </c>
       <c r="G151" s="1">
-        <v>320872</v>
+        <v>254276</v>
       </c>
       <c r="H151" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B152" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C152">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D152" s="1">
-        <v>4274276</v>
+        <v>4268148</v>
       </c>
       <c r="E152" s="1">
-        <v>1068569</v>
+        <v>1067037</v>
       </c>
       <c r="F152" s="1">
-        <v>254276</v>
+        <v>788148</v>
       </c>
       <c r="G152" s="1">
-        <v>254276</v>
+        <v>788148</v>
       </c>
       <c r="H152" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B153" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C153">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D153" s="1">
-        <v>4268148</v>
+        <v>4233540</v>
       </c>
       <c r="E153" s="1">
-        <v>1067037</v>
+        <v>1058385</v>
       </c>
       <c r="F153" s="1">
-        <v>788148</v>
+        <v>753540</v>
       </c>
       <c r="G153" s="1">
-        <v>788148</v>
+        <v>753540</v>
       </c>
       <c r="H153" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B154" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="C154">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D154" s="1">
-        <v>4233540</v>
+        <v>2085000</v>
       </c>
       <c r="E154" s="1">
-        <v>1058385</v>
+        <v>1042500</v>
       </c>
       <c r="F154" s="1">
-        <v>753540</v>
+        <v>0</v>
       </c>
       <c r="G154" s="1">
-        <v>753540</v>
+        <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B155" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C155">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D155" s="1">
-        <v>2085000</v>
+        <v>4162076</v>
       </c>
       <c r="E155" s="1">
-        <v>1042500</v>
+        <v>1040519</v>
       </c>
       <c r="F155" s="1">
-        <v>0</v>
+        <v>322076</v>
       </c>
       <c r="G155" s="1">
-        <v>0</v>
+        <v>322076</v>
       </c>
       <c r="H155" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B156" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C156">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D156" s="1">
-        <v>4162076</v>
+        <v>4158388</v>
       </c>
       <c r="E156" s="1">
-        <v>1040519</v>
+        <v>1039597</v>
       </c>
       <c r="F156" s="1">
-        <v>322076</v>
+        <v>138388</v>
       </c>
       <c r="G156" s="1">
-        <v>322076</v>
+        <v>138388</v>
       </c>
       <c r="H156" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B157" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C157">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D157" s="1">
-        <v>4158388</v>
+        <v>1038500</v>
       </c>
       <c r="E157" s="1">
-        <v>1039597</v>
+        <v>1038500</v>
       </c>
       <c r="F157" s="1">
-        <v>138388</v>
+        <v>8500</v>
       </c>
       <c r="G157" s="1">
-        <v>138388</v>
+        <v>8500</v>
       </c>
       <c r="H157" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B158" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C158">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D158" s="1">
-        <v>1038500</v>
+        <v>4141188</v>
       </c>
       <c r="E158" s="1">
-        <v>1038500</v>
+        <v>1035297</v>
       </c>
       <c r="F158" s="1">
-        <v>8500</v>
+        <v>121188</v>
       </c>
       <c r="G158" s="1">
-        <v>8500</v>
+        <v>121188</v>
       </c>
       <c r="H158" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B159" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C159">
         <v>25</v>
       </c>
       <c r="D159" s="1">
-        <v>4141188</v>
+        <v>4139108</v>
       </c>
       <c r="E159" s="1">
-        <v>1035297</v>
+        <v>1034777</v>
       </c>
       <c r="F159" s="1">
-        <v>121188</v>
+        <v>299108</v>
       </c>
       <c r="G159" s="1">
-        <v>121188</v>
+        <v>299108</v>
       </c>
       <c r="H159" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B160" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="C160">
         <v>25</v>
       </c>
       <c r="D160" s="1">
-        <v>4139108</v>
+        <v>4124076</v>
       </c>
       <c r="E160" s="1">
-        <v>1034777</v>
+        <v>1031019</v>
       </c>
       <c r="F160" s="1">
-        <v>299108</v>
+        <v>104076</v>
       </c>
       <c r="G160" s="1">
-        <v>299108</v>
+        <v>104076</v>
       </c>
       <c r="H160" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C161">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D161" s="1">
-        <v>4124076</v>
+        <v>1030000</v>
       </c>
       <c r="E161" s="1">
-        <v>1031019</v>
+        <v>1030000</v>
       </c>
       <c r="F161" s="1">
-        <v>104076</v>
+        <v>0</v>
       </c>
       <c r="G161" s="1">
-        <v>104076</v>
+        <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B162" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C162">
         <v>26</v>
@@ -5517,15 +5523,15 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B163" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C163">
         <v>26</v>
@@ -5543,15 +5549,15 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B164" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C164">
         <v>26</v>
@@ -5569,18 +5575,18 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C165">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D165" s="1">
         <v>1030000</v>
@@ -5595,18 +5601,18 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B166" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C166">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D166" s="1">
         <v>1030000</v>
@@ -5621,15 +5627,15 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B167" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C167">
         <v>26</v>
@@ -5647,15 +5653,15 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B168" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C168">
         <v>26</v>
@@ -5673,18 +5679,18 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B169" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C169">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D169" s="1">
         <v>1030000</v>
@@ -5699,15 +5705,15 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B170" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C170">
         <v>27</v>
@@ -5725,15 +5731,15 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B171" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="C171">
         <v>27</v>
@@ -5751,18 +5757,18 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B172" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="C172">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D172" s="1">
         <v>1030000</v>
@@ -5777,18 +5783,18 @@
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C173">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D173" s="1">
         <v>1030000</v>
@@ -5803,128 +5809,128 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C174">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D174" s="1">
-        <v>1030000</v>
+        <v>4111648</v>
       </c>
       <c r="E174" s="1">
-        <v>1030000</v>
+        <v>1027912</v>
       </c>
       <c r="F174" s="1">
-        <v>0</v>
+        <v>271648</v>
       </c>
       <c r="G174" s="1">
-        <v>0</v>
+        <v>271648</v>
       </c>
       <c r="H174" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B175" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C175">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D175" s="1">
-        <v>4111648</v>
+        <v>4100736</v>
       </c>
       <c r="E175" s="1">
-        <v>1027912</v>
+        <v>1025184</v>
       </c>
       <c r="F175" s="1">
-        <v>271648</v>
+        <v>80736</v>
       </c>
       <c r="G175" s="1">
-        <v>271648</v>
+        <v>80736</v>
       </c>
       <c r="H175" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B176" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="C176">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D176" s="1">
-        <v>4100736</v>
+        <v>4084980</v>
       </c>
       <c r="E176" s="1">
-        <v>1025184</v>
+        <v>1021245</v>
       </c>
       <c r="F176" s="1">
-        <v>80736</v>
+        <v>244980</v>
       </c>
       <c r="G176" s="1">
-        <v>80736</v>
+        <v>244980</v>
       </c>
       <c r="H176" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C177">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D177" s="1">
-        <v>4084980</v>
+        <v>2035000</v>
       </c>
       <c r="E177" s="1">
-        <v>1021245</v>
+        <v>1017500</v>
       </c>
       <c r="F177" s="1">
-        <v>244980</v>
+        <v>0</v>
       </c>
       <c r="G177" s="1">
-        <v>244980</v>
+        <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>52</v>
+        <v>226</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B178" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="C178">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D178" s="1">
-        <v>2035000</v>
+        <v>2965000</v>
       </c>
       <c r="E178" s="1">
-        <v>1017500</v>
+        <v>988333</v>
       </c>
       <c r="F178" s="1">
         <v>0</v>
@@ -5933,24 +5939,24 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B179" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C179">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D179" s="1">
-        <v>2965000</v>
+        <v>985000</v>
       </c>
       <c r="E179" s="1">
-        <v>988333</v>
+        <v>985000</v>
       </c>
       <c r="F179" s="1">
         <v>0</v>
@@ -5959,18 +5965,18 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B180" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C180">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D180" s="1">
         <v>985000</v>
@@ -5985,18 +5991,18 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B181" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C181">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D181" s="1">
         <v>985000</v>
@@ -6011,96 +6017,96 @@
         <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B182" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C182">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D182" s="1">
-        <v>985000</v>
+        <v>3933152</v>
       </c>
       <c r="E182" s="1">
-        <v>985000</v>
+        <v>983288</v>
       </c>
       <c r="F182" s="1">
-        <v>0</v>
+        <v>273152</v>
       </c>
       <c r="G182" s="1">
-        <v>0</v>
+        <v>273152</v>
       </c>
       <c r="H182" t="s">
-        <v>236</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B183" t="s">
         <v>28</v>
       </c>
       <c r="C183">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D183" s="1">
-        <v>3933152</v>
+        <v>3902556</v>
       </c>
       <c r="E183" s="1">
-        <v>983288</v>
+        <v>975639</v>
       </c>
       <c r="F183" s="1">
-        <v>273152</v>
+        <v>242556</v>
       </c>
       <c r="G183" s="1">
-        <v>273152</v>
+        <v>242556</v>
       </c>
       <c r="H183" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B184" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C184">
         <v>25</v>
       </c>
       <c r="D184" s="1">
-        <v>3902556</v>
+        <v>1945000</v>
       </c>
       <c r="E184" s="1">
-        <v>975639</v>
+        <v>972500</v>
       </c>
       <c r="F184" s="1">
-        <v>242556</v>
+        <v>0</v>
       </c>
       <c r="G184" s="1">
-        <v>242556</v>
+        <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C185">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D185" s="1">
         <v>1945000</v>
@@ -6115,67 +6121,67 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B186" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C186">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D186" s="1">
-        <v>1945000</v>
+        <v>3845408</v>
       </c>
       <c r="E186" s="1">
-        <v>972500</v>
+        <v>961352</v>
       </c>
       <c r="F186" s="1">
-        <v>0</v>
+        <v>185408</v>
       </c>
       <c r="G186" s="1">
-        <v>0</v>
+        <v>185408</v>
       </c>
       <c r="H186" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B187" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C187">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D187" s="1">
-        <v>3845408</v>
+        <v>960000</v>
       </c>
       <c r="E187" s="1">
-        <v>961352</v>
+        <v>960000</v>
       </c>
       <c r="F187" s="1">
-        <v>185408</v>
+        <v>0</v>
       </c>
       <c r="G187" s="1">
-        <v>185408</v>
+        <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B188" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C188">
         <v>27</v>
@@ -6193,18 +6199,18 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C189">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D189" s="1">
         <v>960000</v>
@@ -6219,18 +6225,18 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B190" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C190">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D190" s="1">
         <v>960000</v>
@@ -6245,18 +6251,18 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B191" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C191">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D191" s="1">
         <v>960000</v>
@@ -6271,18 +6277,18 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B192" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C192">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D192" s="1">
         <v>960000</v>
@@ -6297,18 +6303,18 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B193" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C193">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D193" s="1">
         <v>960000</v>
@@ -6323,15 +6329,15 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B194" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C194">
         <v>25</v>
@@ -6349,44 +6355,44 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B195" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C195">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D195" s="1">
-        <v>960000</v>
+        <v>2850000</v>
       </c>
       <c r="E195" s="1">
-        <v>960000</v>
+        <v>950000</v>
       </c>
       <c r="F195" s="1">
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="G195" s="1">
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="H195" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B196" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C196">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D196" s="1">
         <v>2850000</v>
@@ -6395,21 +6401,21 @@
         <v>950000</v>
       </c>
       <c r="F196" s="1">
-        <v>220000</v>
+        <v>245000</v>
       </c>
       <c r="G196" s="1">
-        <v>220000</v>
+        <v>245000</v>
       </c>
       <c r="H196" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B197" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C197">
         <v>25</v>
@@ -6421,99 +6427,99 @@
         <v>950000</v>
       </c>
       <c r="F197" s="1">
-        <v>245000</v>
+        <v>120000</v>
       </c>
       <c r="G197" s="1">
-        <v>245000</v>
+        <v>120000</v>
       </c>
       <c r="H197" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C198">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D198" s="1">
-        <v>2850000</v>
+        <v>2845000</v>
       </c>
       <c r="E198" s="1">
-        <v>950000</v>
+        <v>948333</v>
       </c>
       <c r="F198" s="1">
-        <v>120000</v>
+        <v>15000</v>
       </c>
       <c r="G198" s="1">
-        <v>120000</v>
+        <v>15000</v>
       </c>
       <c r="H198" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B199" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C199">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D199" s="1">
-        <v>2845000</v>
+        <v>2840000</v>
       </c>
       <c r="E199" s="1">
-        <v>948333</v>
+        <v>946667</v>
       </c>
       <c r="F199" s="1">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="G199" s="1">
-        <v>15000</v>
+        <v>70000</v>
       </c>
       <c r="H199" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B200" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C200">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D200" s="1">
-        <v>2840000</v>
+        <v>2830000</v>
       </c>
       <c r="E200" s="1">
-        <v>946667</v>
+        <v>943333</v>
       </c>
       <c r="F200" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="G200" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B201" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C201">
         <v>26</v>
@@ -6531,24 +6537,24 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B202" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C202">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D202" s="1">
-        <v>2830000</v>
+        <v>1855000</v>
       </c>
       <c r="E202" s="1">
-        <v>943333</v>
+        <v>927500</v>
       </c>
       <c r="F202" s="1">
         <v>0</v>
@@ -6557,24 +6563,24 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C203">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D203" s="1">
-        <v>1855000</v>
+        <v>1845000</v>
       </c>
       <c r="E203" s="1">
-        <v>927500</v>
+        <v>922500</v>
       </c>
       <c r="F203" s="1">
         <v>0</v>
@@ -6583,18 +6589,18 @@
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B204" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C204">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D204" s="1">
         <v>1845000</v>
@@ -6609,15 +6615,15 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B205" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="C205">
         <v>25</v>
@@ -6635,24 +6641,24 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B206" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C206">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D206" s="1">
-        <v>1845000</v>
+        <v>915000</v>
       </c>
       <c r="E206" s="1">
-        <v>922500</v>
+        <v>915000</v>
       </c>
       <c r="F206" s="1">
         <v>0</v>
@@ -6661,15 +6667,15 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B207" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C207">
         <v>27</v>
@@ -6687,15 +6693,15 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B208" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C208">
         <v>27</v>
@@ -6713,15 +6719,15 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B209" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C209">
         <v>27</v>
@@ -6739,180 +6745,180 @@
         <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B210" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C210">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D210" s="1">
-        <v>915000</v>
+        <v>3641860</v>
       </c>
       <c r="E210" s="1">
-        <v>915000</v>
+        <v>910465</v>
       </c>
       <c r="F210" s="1">
-        <v>0</v>
+        <v>161860</v>
       </c>
       <c r="G210" s="1">
-        <v>0</v>
+        <v>161860</v>
       </c>
       <c r="H210" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B211" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="C211">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D211" s="1">
-        <v>3641860</v>
+        <v>2704000</v>
       </c>
       <c r="E211" s="1">
-        <v>910465</v>
+        <v>901333</v>
       </c>
       <c r="F211" s="1">
-        <v>161860</v>
+        <v>9000</v>
       </c>
       <c r="G211" s="1">
-        <v>161860</v>
+        <v>9000</v>
       </c>
       <c r="H211" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B212" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C212">
         <v>25</v>
       </c>
       <c r="D212" s="1">
-        <v>2704000</v>
+        <v>2697000</v>
       </c>
       <c r="E212" s="1">
-        <v>901333</v>
+        <v>899000</v>
       </c>
       <c r="F212" s="1">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="G212" s="1">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="H212" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B213" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C213">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D213" s="1">
-        <v>2697000</v>
+        <v>2696000</v>
       </c>
       <c r="E213" s="1">
-        <v>899000</v>
+        <v>898667</v>
       </c>
       <c r="F213" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G213" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H213" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B214" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="C214">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D214" s="1">
-        <v>2696000</v>
+        <v>3585872</v>
       </c>
       <c r="E214" s="1">
-        <v>898667</v>
+        <v>896468</v>
       </c>
       <c r="F214" s="1">
-        <v>1000</v>
+        <v>105872</v>
       </c>
       <c r="G214" s="1">
-        <v>1000</v>
+        <v>105872</v>
       </c>
       <c r="H214" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B215" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C215">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D215" s="1">
-        <v>3585872</v>
+        <v>2640000</v>
       </c>
       <c r="E215" s="1">
-        <v>896468</v>
+        <v>880000</v>
       </c>
       <c r="F215" s="1">
-        <v>105872</v>
+        <v>0</v>
       </c>
       <c r="G215" s="1">
-        <v>105872</v>
+        <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B216" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C216">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D216" s="1">
-        <v>2640000</v>
+        <v>1755000</v>
       </c>
       <c r="E216" s="1">
-        <v>880000</v>
+        <v>877500</v>
       </c>
       <c r="F216" s="1">
         <v>0</v>
@@ -6921,18 +6927,18 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B217" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="C217">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D217" s="1">
         <v>1755000</v>
@@ -6947,18 +6953,18 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B218" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C218">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D218" s="1">
         <v>1755000</v>
@@ -6973,18 +6979,18 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B219" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C219">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D219" s="1">
         <v>1755000</v>
@@ -6999,24 +7005,24 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B220" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="C220">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D220" s="1">
-        <v>1755000</v>
+        <v>840000</v>
       </c>
       <c r="E220" s="1">
-        <v>877500</v>
+        <v>840000</v>
       </c>
       <c r="F220" s="1">
         <v>0</v>
@@ -7025,15 +7031,15 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B221" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C221">
         <v>25</v>
@@ -7051,15 +7057,15 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B222" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C222">
         <v>25</v>
@@ -7077,15 +7083,15 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B223" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C223">
         <v>25</v>
@@ -7103,18 +7109,18 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B224" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C224">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D224" s="1">
         <v>840000</v>
@@ -7129,18 +7135,18 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B225" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C225">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D225" s="1">
         <v>840000</v>
@@ -7155,18 +7161,18 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B226" t="s">
         <v>66</v>
       </c>
       <c r="C226">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D226" s="1">
         <v>840000</v>
@@ -7181,18 +7187,18 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B227" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C227">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D227" s="1">
         <v>840000</v>
@@ -7207,18 +7213,18 @@
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B228" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C228">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D228" s="1">
         <v>840000</v>
@@ -7233,18 +7239,18 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B229" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C229">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D229" s="1">
         <v>840000</v>
@@ -7259,18 +7265,18 @@
         <v>0</v>
       </c>
       <c r="H229" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B230" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C230">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D230" s="1">
         <v>840000</v>
@@ -7285,18 +7291,18 @@
         <v>0</v>
       </c>
       <c r="H230" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B231" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C231">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D231" s="1">
         <v>840000</v>
@@ -7311,18 +7317,18 @@
         <v>0</v>
       </c>
       <c r="H231" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B232" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C232">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D232" s="1">
         <v>840000</v>
@@ -7337,18 +7343,18 @@
         <v>0</v>
       </c>
       <c r="H232" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B233" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C233">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D233" s="1">
         <v>840000</v>
@@ -7363,18 +7369,18 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B234" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C234">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D234" s="1">
         <v>840000</v>
@@ -7389,15 +7395,15 @@
         <v>0</v>
       </c>
       <c r="H234" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B235" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C235">
         <v>25</v>
@@ -7415,18 +7421,18 @@
         <v>0</v>
       </c>
       <c r="H235" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B236" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C236">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D236" s="1">
         <v>840000</v>
@@ -7441,18 +7447,18 @@
         <v>0</v>
       </c>
       <c r="H236" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B237" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C237">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D237" s="1">
         <v>840000</v>
@@ -7467,24 +7473,24 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B238" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C238">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D238" s="1">
-        <v>840000</v>
+        <v>1635000</v>
       </c>
       <c r="E238" s="1">
-        <v>840000</v>
+        <v>817500</v>
       </c>
       <c r="F238" s="1">
         <v>0</v>
@@ -7493,24 +7499,24 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B239" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C239">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D239" s="1">
-        <v>1635000</v>
+        <v>795000</v>
       </c>
       <c r="E239" s="1">
-        <v>817500</v>
+        <v>795000</v>
       </c>
       <c r="F239" s="1">
         <v>0</v>
@@ -7519,18 +7525,18 @@
         <v>0</v>
       </c>
       <c r="H239" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B240" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C240">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D240" s="1">
         <v>795000</v>
@@ -7545,33 +7551,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A241" t="s">
-        <v>298</v>
-      </c>
-      <c r="B241" t="s">
-        <v>51</v>
-      </c>
-      <c r="C241">
-        <v>27</v>
-      </c>
-      <c r="D241" s="1">
-        <v>795000</v>
-      </c>
-      <c r="E241" s="1">
-        <v>795000</v>
-      </c>
-      <c r="F241" s="1">
-        <v>0</v>
-      </c>
-      <c r="G241" s="1">
-        <v>0</v>
-      </c>
-      <c r="H241" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SalaryData2024.xlsx
+++ b/Data/SalaryData2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint\OneDrive\Desktop\Python\PassRusherProfile\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81857E69-DD1B-45AC-AC8E-47A7147D93AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA7A1D3-125E-43AA-A079-A008C6418B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{145E95C2-4CEE-4C00-8587-05CEAAFF428B}"/>
+    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="6918" xr2:uid="{145E95C2-4CEE-4C00-8587-05CEAAFF428B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,15 +215,9 @@
     <t>Lions</t>
   </si>
   <si>
-    <t>Matt Judon</t>
-  </si>
-  <si>
     <t>Falcons</t>
   </si>
   <si>
-    <t>Dorance Armstrong Jr.</t>
-  </si>
-  <si>
     <t>Commanders</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
     <t>Marcus Davenport</t>
   </si>
   <si>
-    <t>Ogbonnia Okoronkwo</t>
-  </si>
-  <si>
     <t>Tyree Wilson</t>
   </si>
   <si>
@@ -410,9 +401,6 @@
     <t>Felix Anudike-Uzomah</t>
   </si>
   <si>
-    <t>Gregory Rousseau</t>
-  </si>
-  <si>
     <t>Odafe Oweh</t>
   </si>
   <si>
@@ -545,9 +533,6 @@
     <t>Chauncey Golston</t>
   </si>
   <si>
-    <t>Patrick Jones II</t>
-  </si>
-  <si>
     <t>Justin Eboigbe</t>
   </si>
   <si>
@@ -560,9 +545,6 @@
     <t>Khalid Kareem</t>
   </si>
   <si>
-    <t>Carlos Basham Jr.</t>
-  </si>
-  <si>
     <t>Baron Browning</t>
   </si>
   <si>
@@ -927,6 +909,24 @@
   </si>
   <si>
     <t>Free Agency</t>
+  </si>
+  <si>
+    <t>Greg Rousseau</t>
+  </si>
+  <si>
+    <t>Dorance Armstrong</t>
+  </si>
+  <si>
+    <t>boogie Basham</t>
+  </si>
+  <si>
+    <t>Ogbo Okoronkwo</t>
+  </si>
+  <si>
+    <t>Matthew Judon</t>
+  </si>
+  <si>
+    <t>Pat Jones II</t>
   </si>
 </sst>
 </file>
@@ -1304,12 +1304,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056453F3-443A-43CE-9113-6295878462E1}">
   <dimension ref="A1:J240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="20.734375" customWidth="1"/>
     <col min="10" max="10" width="12.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1324,19 +1325,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1966,10 +1967,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" t="s">
         <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
       </c>
       <c r="C26">
         <v>33</v>
@@ -1992,10 +1993,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>28</v>
@@ -2018,10 +2019,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>29</v>
@@ -2044,7 +2045,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -2070,10 +2071,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>32</v>
@@ -2096,7 +2097,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -2122,7 +2123,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
@@ -2148,7 +2149,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -2174,7 +2175,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -2200,7 +2201,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -2226,7 +2227,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>58</v>
@@ -2252,7 +2253,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -2278,10 +2279,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>28</v>
@@ -2304,10 +2305,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>30</v>
@@ -2330,10 +2331,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>28</v>
@@ -2356,7 +2357,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -2382,7 +2383,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
         <v>49</v>
@@ -2408,10 +2409,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>29</v>
@@ -2434,7 +2435,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
         <v>58</v>
@@ -2460,7 +2461,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s">
         <v>19</v>
@@ -2486,7 +2487,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -2512,10 +2513,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47">
         <v>28</v>
@@ -2538,10 +2539,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48">
         <v>30</v>
@@ -2564,7 +2565,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -2590,10 +2591,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>31</v>
@@ -2616,10 +2617,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C51">
         <v>28</v>
@@ -2642,10 +2643,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C52">
         <v>34</v>
@@ -2668,10 +2669,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53">
         <v>30</v>
@@ -2694,7 +2695,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
@@ -2720,7 +2721,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -2746,10 +2747,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56">
         <v>25</v>
@@ -2772,10 +2773,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C57">
         <v>26</v>
@@ -2798,7 +2799,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
         <v>42</v>
@@ -2824,10 +2825,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C59">
         <v>28</v>
@@ -2850,7 +2851,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
         <v>40</v>
@@ -2876,10 +2877,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C61">
         <v>25</v>
@@ -2902,10 +2903,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62">
         <v>28</v>
@@ -2928,7 +2929,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
         <v>30</v>
@@ -2954,7 +2955,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
         <v>30</v>
@@ -2980,10 +2981,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65">
         <v>27</v>
@@ -3006,10 +3007,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C66">
         <v>31</v>
@@ -3032,10 +3033,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C67">
         <v>26</v>
@@ -3058,10 +3059,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C68">
         <v>31</v>
@@ -3084,7 +3085,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
         <v>30</v>
@@ -3110,7 +3111,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
         <v>33</v>
@@ -3136,7 +3137,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -3162,7 +3163,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
         <v>54</v>
@@ -3188,7 +3189,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
         <v>37</v>
@@ -3214,10 +3215,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74">
         <v>27</v>
@@ -3240,7 +3241,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
@@ -3266,10 +3267,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C76">
         <v>28</v>
@@ -3292,10 +3293,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C77">
         <v>24</v>
@@ -3318,10 +3319,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78">
         <v>23</v>
@@ -3344,7 +3345,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s">
         <v>35</v>
@@ -3370,10 +3371,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C80">
         <v>27</v>
@@ -3396,10 +3397,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C81">
         <v>26</v>
@@ -3422,7 +3423,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B82" t="s">
         <v>35</v>
@@ -3448,7 +3449,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B83" t="s">
         <v>54</v>
@@ -3474,7 +3475,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B84" t="s">
         <v>45</v>
@@ -3500,10 +3501,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C85">
         <v>26</v>
@@ -3526,7 +3527,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B86" t="s">
         <v>54</v>
@@ -3552,10 +3553,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C87">
         <v>23</v>
@@ -3578,7 +3579,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B88" t="s">
         <v>45</v>
@@ -3604,7 +3605,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B89" t="s">
         <v>25</v>
@@ -3630,10 +3631,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C90">
         <v>25</v>
@@ -3656,10 +3657,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C91">
         <v>26</v>
@@ -3682,7 +3683,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B92" t="s">
         <v>58</v>
@@ -3708,7 +3709,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s">
         <v>40</v>
@@ -3734,10 +3735,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94">
         <v>29</v>
@@ -3760,7 +3761,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
         <v>51</v>
@@ -3786,10 +3787,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C96">
         <v>24</v>
@@ -3812,7 +3813,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
         <v>13</v>
@@ -3838,7 +3839,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B98" t="s">
         <v>37</v>
@@ -3864,7 +3865,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s">
         <v>51</v>
@@ -3890,10 +3891,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C100">
         <v>26</v>
@@ -3916,10 +3917,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C101">
         <v>24</v>
@@ -3942,7 +3943,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -3968,7 +3969,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
         <v>49</v>
@@ -3994,7 +3995,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
         <v>49</v>
@@ -4020,10 +4021,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B105" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C105">
         <v>24</v>
@@ -4046,7 +4047,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B106" t="s">
         <v>42</v>
@@ -4072,10 +4073,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C107">
         <v>24</v>
@@ -4098,10 +4099,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C108">
         <v>27</v>
@@ -4124,10 +4125,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C109">
         <v>27</v>
@@ -4145,15 +4146,15 @@
         <v>1002172</v>
       </c>
       <c r="H109" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C110">
         <v>26</v>
@@ -4176,7 +4177,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B111" t="s">
         <v>19</v>
@@ -4202,10 +4203,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C112">
         <v>26</v>
@@ -4228,7 +4229,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B113" t="s">
         <v>25</v>
@@ -4254,7 +4255,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B114" t="s">
         <v>33</v>
@@ -4280,10 +4281,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C115">
         <v>28</v>
@@ -4306,10 +4307,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C116">
         <v>30</v>
@@ -4332,7 +4333,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B117" t="s">
         <v>45</v>
@@ -4358,7 +4359,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B118" t="s">
         <v>22</v>
@@ -4384,7 +4385,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B119" t="s">
         <v>30</v>
@@ -4410,7 +4411,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B120" t="s">
         <v>19</v>
@@ -4436,7 +4437,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -4462,7 +4463,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B122" t="s">
         <v>51</v>
@@ -4488,7 +4489,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>296</v>
       </c>
       <c r="B123" t="s">
         <v>40</v>
@@ -4514,7 +4515,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B124" t="s">
         <v>37</v>
@@ -4540,10 +4541,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B125" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C125">
         <v>33</v>
@@ -4566,10 +4567,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B126" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C126">
         <v>28</v>
@@ -4592,10 +4593,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B127" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C127">
         <v>27</v>
@@ -4618,10 +4619,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="B128" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C128">
         <v>28</v>
@@ -4644,10 +4645,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B129" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C129">
         <v>26</v>
@@ -4670,7 +4671,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B130" t="s">
         <v>25</v>
@@ -4696,10 +4697,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B131" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C131">
         <v>24</v>
@@ -4722,10 +4723,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B132" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C132">
         <v>26</v>
@@ -4748,7 +4749,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B133" t="s">
         <v>19</v>
@@ -4774,7 +4775,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -4800,7 +4801,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B135" t="s">
         <v>51</v>
@@ -4826,10 +4827,10 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B136" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C136">
         <v>28</v>
@@ -4852,10 +4853,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B137" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C137">
         <v>29</v>
@@ -4878,7 +4879,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B138" t="s">
         <v>58</v>
@@ -4904,7 +4905,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B139" t="s">
         <v>58</v>
@@ -4930,7 +4931,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B140" t="s">
         <v>30</v>
@@ -4956,10 +4957,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B141" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C141">
         <v>28</v>
@@ -4982,7 +4983,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -5008,7 +5009,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
@@ -5029,12 +5030,12 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B144" t="s">
         <v>51</v>
@@ -5060,10 +5061,10 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B145" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C145">
         <v>26</v>
@@ -5086,7 +5087,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B146" t="s">
         <v>22</v>
@@ -5112,10 +5113,10 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B147" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C147">
         <v>27</v>
@@ -5138,7 +5139,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B148" t="s">
         <v>51</v>
@@ -5164,10 +5165,10 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B149" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C149">
         <v>25</v>
@@ -5190,7 +5191,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B150" t="s">
         <v>30</v>
@@ -5216,7 +5217,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B151" t="s">
         <v>35</v>
@@ -5242,7 +5243,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B152" t="s">
         <v>33</v>
@@ -5268,7 +5269,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B153" t="s">
         <v>37</v>
@@ -5294,10 +5295,10 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B154" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C154">
         <v>26</v>
@@ -5315,12 +5316,12 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B155" t="s">
         <v>45</v>
@@ -5346,7 +5347,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B156" t="s">
         <v>33</v>
@@ -5372,7 +5373,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B157" t="s">
         <v>25</v>
@@ -5393,15 +5394,15 @@
         <v>8500</v>
       </c>
       <c r="H157" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B158" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C158">
         <v>25</v>
@@ -5424,10 +5425,10 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B159" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C159">
         <v>25</v>
@@ -5450,7 +5451,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
@@ -5476,7 +5477,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B161" t="s">
         <v>42</v>
@@ -5497,12 +5498,12 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B162" t="s">
         <v>42</v>
@@ -5523,12 +5524,12 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B163" t="s">
         <v>37</v>
@@ -5549,12 +5550,12 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
@@ -5575,12 +5576,12 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B165" t="s">
         <v>30</v>
@@ -5601,12 +5602,12 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B166" t="s">
         <v>51</v>
@@ -5627,15 +5628,15 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B167" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C167">
         <v>26</v>
@@ -5653,12 +5654,12 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B168" t="s">
         <v>28</v>
@@ -5679,12 +5680,12 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B169" t="s">
         <v>22</v>
@@ -5705,12 +5706,12 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B170" t="s">
         <v>19</v>
@@ -5731,15 +5732,15 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B171" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C171">
         <v>27</v>
@@ -5757,12 +5758,12 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
@@ -5783,12 +5784,12 @@
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B173" t="s">
         <v>8</v>
@@ -5809,15 +5810,15 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B174" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C174">
         <v>26</v>
@@ -5835,15 +5836,15 @@
         <v>271648</v>
       </c>
       <c r="H174" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B175" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C175">
         <v>23</v>
@@ -5866,7 +5867,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -5892,7 +5893,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B177" t="s">
         <v>30</v>
@@ -5913,15 +5914,15 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B178" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C178">
         <v>27</v>
@@ -5939,15 +5940,15 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B179" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C179">
         <v>26</v>
@@ -5965,15 +5966,15 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B180" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C180">
         <v>28</v>
@@ -5991,12 +5992,12 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B181" t="s">
         <v>30</v>
@@ -6017,12 +6018,12 @@
         <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B182" t="s">
         <v>22</v>
@@ -6048,7 +6049,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B183" t="s">
         <v>28</v>
@@ -6074,7 +6075,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -6095,12 +6096,12 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B185" t="s">
         <v>33</v>
@@ -6121,15 +6122,15 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B186" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C186">
         <v>26</v>
@@ -6152,7 +6153,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B187" t="s">
         <v>49</v>
@@ -6173,12 +6174,12 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -6199,12 +6200,12 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B189" t="s">
         <v>22</v>
@@ -6225,12 +6226,12 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B190" t="s">
         <v>54</v>
@@ -6251,15 +6252,15 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B191" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C191">
         <v>26</v>
@@ -6277,15 +6278,15 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B192" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C192">
         <v>27</v>
@@ -6303,12 +6304,12 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B193" t="s">
         <v>45</v>
@@ -6329,12 +6330,12 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B194" t="s">
         <v>49</v>
@@ -6355,15 +6356,15 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B195" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C195">
         <v>24</v>
@@ -6381,15 +6382,15 @@
         <v>220000</v>
       </c>
       <c r="H195" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B196" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C196">
         <v>25</v>
@@ -6407,12 +6408,12 @@
         <v>245000</v>
       </c>
       <c r="H196" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -6433,12 +6434,12 @@
         <v>120000</v>
       </c>
       <c r="H197" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B198" t="s">
         <v>58</v>
@@ -6459,12 +6460,12 @@
         <v>15000</v>
       </c>
       <c r="H198" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B199" t="s">
         <v>30</v>
@@ -6485,12 +6486,12 @@
         <v>70000</v>
       </c>
       <c r="H199" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B200" t="s">
         <v>54</v>
@@ -6511,12 +6512,12 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B201" t="s">
         <v>37</v>
@@ -6537,12 +6538,12 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -6568,10 +6569,10 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B203" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C203">
         <v>24</v>
@@ -6589,15 +6590,15 @@
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B204" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C204">
         <v>25</v>
@@ -6615,12 +6616,12 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B205" t="s">
         <v>30</v>
@@ -6641,12 +6642,12 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B206" t="s">
         <v>11</v>
@@ -6667,12 +6668,12 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B207" t="s">
         <v>19</v>
@@ -6693,12 +6694,12 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B208" t="s">
         <v>16</v>
@@ -6719,12 +6720,12 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B209" t="s">
         <v>13</v>
@@ -6745,15 +6746,15 @@
         <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B210" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C210">
         <v>26</v>
@@ -6776,7 +6777,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B211" t="s">
         <v>28</v>
@@ -6797,15 +6798,15 @@
         <v>9000</v>
       </c>
       <c r="H211" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B212" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C212">
         <v>25</v>
@@ -6823,15 +6824,15 @@
         <v>2000</v>
       </c>
       <c r="H212" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B213" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C213">
         <v>26</v>
@@ -6849,12 +6850,12 @@
         <v>1000</v>
       </c>
       <c r="H213" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B214" t="s">
         <v>13</v>
@@ -6880,10 +6881,10 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B215" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C215">
         <v>24</v>
@@ -6901,15 +6902,15 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B216" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C216">
         <v>26</v>
@@ -6927,12 +6928,12 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B217" t="s">
         <v>40</v>
@@ -6953,15 +6954,15 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B218" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C218">
         <v>26</v>
@@ -6979,15 +6980,15 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B219" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C219">
         <v>27</v>
@@ -7005,12 +7006,12 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B220" t="s">
         <v>28</v>
@@ -7031,15 +7032,15 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B221" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C221">
         <v>25</v>
@@ -7057,12 +7058,12 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B222" t="s">
         <v>37</v>
@@ -7083,12 +7084,12 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B223" t="s">
         <v>16</v>
@@ -7109,12 +7110,12 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B224" t="s">
         <v>16</v>
@@ -7135,15 +7136,15 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B225" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C225">
         <v>26</v>
@@ -7161,15 +7162,15 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B226" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C226">
         <v>24</v>
@@ -7187,12 +7188,12 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B227" t="s">
         <v>40</v>
@@ -7213,12 +7214,12 @@
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B228" t="s">
         <v>22</v>
@@ -7239,12 +7240,12 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B229" t="s">
         <v>19</v>
@@ -7265,12 +7266,12 @@
         <v>0</v>
       </c>
       <c r="H229" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -7291,12 +7292,12 @@
         <v>0</v>
       </c>
       <c r="H230" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B231" t="s">
         <v>25</v>
@@ -7317,12 +7318,12 @@
         <v>0</v>
       </c>
       <c r="H231" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -7343,12 +7344,12 @@
         <v>0</v>
       </c>
       <c r="H232" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B233" t="s">
         <v>58</v>
@@ -7369,15 +7370,15 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B234" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C234">
         <v>25</v>
@@ -7395,15 +7396,15 @@
         <v>0</v>
       </c>
       <c r="H234" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B235" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C235">
         <v>25</v>
@@ -7421,15 +7422,15 @@
         <v>0</v>
       </c>
       <c r="H235" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B236" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C236">
         <v>28</v>
@@ -7447,12 +7448,12 @@
         <v>0</v>
       </c>
       <c r="H236" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B237" t="s">
         <v>28</v>
@@ -7473,15 +7474,15 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B238" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C238">
         <v>25</v>
@@ -7499,12 +7500,12 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B239" t="s">
         <v>58</v>
@@ -7525,12 +7526,12 @@
         <v>0</v>
       </c>
       <c r="H239" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B240" t="s">
         <v>45</v>
@@ -7551,10 +7552,11 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/SalaryData2024.xlsx
+++ b/Data/SalaryData2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint\OneDrive\Desktop\Python\PassRusherProfile\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA7A1D3-125E-43AA-A079-A008C6418B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCF4517-737D-4132-A43C-A393B2195DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="6918" xr2:uid="{145E95C2-4CEE-4C00-8587-05CEAAFF428B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{145E95C2-4CEE-4C00-8587-05CEAAFF428B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="351">
   <si>
     <t>Player</t>
   </si>
@@ -927,6 +927,168 @@
   </si>
   <si>
     <t>Pat Jones II</t>
+  </si>
+  <si>
+    <t>Joey Bosa</t>
+  </si>
+  <si>
+    <t>Isaiah Land</t>
+  </si>
+  <si>
+    <t>Dallas Cowboys</t>
+  </si>
+  <si>
+    <t>Jamie Sheriff</t>
+  </si>
+  <si>
+    <t>Miami Dolphins</t>
+  </si>
+  <si>
+    <t>Rashad Weaver</t>
+  </si>
+  <si>
+    <t>Tennessee Titans</t>
+  </si>
+  <si>
+    <t>Deatrich Wise Jr.</t>
+  </si>
+  <si>
+    <t>New England Patriots</t>
+  </si>
+  <si>
+    <t>Adetokunbo Ogundeji</t>
+  </si>
+  <si>
+    <t>Atlanta Falcons</t>
+  </si>
+  <si>
+    <t>Preston Smith</t>
+  </si>
+  <si>
+    <t>Green Bay Packers</t>
+  </si>
+  <si>
+    <t>Dre'Mont Jones</t>
+  </si>
+  <si>
+    <t>Seattle Seahawks</t>
+  </si>
+  <si>
+    <t>Haason Reddick</t>
+  </si>
+  <si>
+    <t>Philadelphia Eagles</t>
+  </si>
+  <si>
+    <t>Sam Hubbard</t>
+  </si>
+  <si>
+    <t>Cincinnati Bengals</t>
+  </si>
+  <si>
+    <t>Chicago Bears</t>
+  </si>
+  <si>
+    <t>Zaven Collins</t>
+  </si>
+  <si>
+    <t>Arizona Cardinals</t>
+  </si>
+  <si>
+    <t>Nick Herbig</t>
+  </si>
+  <si>
+    <t>Pittsburgh Steelers</t>
+  </si>
+  <si>
+    <t>DJ Coleman</t>
+  </si>
+  <si>
+    <t>Jacksonville Jaguars</t>
+  </si>
+  <si>
+    <t>Charles Harris</t>
+  </si>
+  <si>
+    <t>Detroit Lions</t>
+  </si>
+  <si>
+    <t>Yannick Ngakoue</t>
+  </si>
+  <si>
+    <t>Michael Burton</t>
+  </si>
+  <si>
+    <t>Kansas City Chiefs</t>
+  </si>
+  <si>
+    <t>DeMarvin Leal</t>
+  </si>
+  <si>
+    <t>Jamin Davis</t>
+  </si>
+  <si>
+    <t>Washington Commanders</t>
+  </si>
+  <si>
+    <t>Adam Gotsis</t>
+  </si>
+  <si>
+    <t>Takk McKinley</t>
+  </si>
+  <si>
+    <t>Cam Gill</t>
+  </si>
+  <si>
+    <t>Tampa Bay Buccaneers</t>
+  </si>
+  <si>
+    <t>DeMarcus Walker</t>
+  </si>
+  <si>
+    <t>Marquis Haynes Sr.</t>
+  </si>
+  <si>
+    <t>Carolina Panthers</t>
+  </si>
+  <si>
+    <t>Efe Obada</t>
+  </si>
+  <si>
+    <t>Trevor Nowaske</t>
+  </si>
+  <si>
+    <t>Reggie Gilliam</t>
+  </si>
+  <si>
+    <t>Buffalo Bills</t>
+  </si>
+  <si>
+    <t>Harold Landry III</t>
+  </si>
+  <si>
+    <t>Los Angeles Chargers</t>
+  </si>
+  <si>
+    <t>Brent Urban</t>
+  </si>
+  <si>
+    <t>Baltimore Ravens</t>
+  </si>
+  <si>
+    <t>Jermaine Johnson</t>
+  </si>
+  <si>
+    <t>New York Jets</t>
+  </si>
+  <si>
+    <t>Casey Toohill</t>
+  </si>
+  <si>
+    <t>Shaq Lawson</t>
+  </si>
+  <si>
+    <t>Joe Gaziano</t>
   </si>
 </sst>
 </file>
@@ -965,9 +1127,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1302,15 +1470,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056453F3-443A-43CE-9113-6295878462E1}">
-  <dimension ref="A1:J240"/>
+  <dimension ref="A1:J272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="J271" sqref="J271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="20.734375" customWidth="1"/>
+    <col min="4" max="4" width="12.3125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7555,6 +7724,838 @@
         <v>252</v>
       </c>
     </row>
+    <row r="241" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C241" s="2">
+        <v>24</v>
+      </c>
+      <c r="D241" s="3">
+        <v>2705000</v>
+      </c>
+      <c r="E241" s="3">
+        <v>902000</v>
+      </c>
+      <c r="F241" s="3">
+        <v>45000</v>
+      </c>
+      <c r="G241" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C242" s="2">
+        <v>23</v>
+      </c>
+      <c r="D242" s="3">
+        <v>2710000</v>
+      </c>
+      <c r="E242" s="3">
+        <v>903333</v>
+      </c>
+      <c r="F242" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G242" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C243" s="2">
+        <v>26</v>
+      </c>
+      <c r="D243" s="3">
+        <v>4100000</v>
+      </c>
+      <c r="E243" s="3">
+        <v>1025000</v>
+      </c>
+      <c r="F243" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G243" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C244" s="2">
+        <v>30</v>
+      </c>
+      <c r="D244" s="3">
+        <v>22000000</v>
+      </c>
+      <c r="E244" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="F244" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="G244" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C245" s="2">
+        <v>26</v>
+      </c>
+      <c r="D245" s="3">
+        <v>3800000</v>
+      </c>
+      <c r="E245" s="3">
+        <v>950000</v>
+      </c>
+      <c r="F245" s="3">
+        <v>320000</v>
+      </c>
+      <c r="G245" s="3">
+        <v>320000</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C246" s="2">
+        <v>32</v>
+      </c>
+      <c r="D246" s="3">
+        <v>52000000</v>
+      </c>
+      <c r="E246" s="3">
+        <v>13000000</v>
+      </c>
+      <c r="F246" s="3">
+        <v>16000000</v>
+      </c>
+      <c r="G246" s="3">
+        <v>16000000</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C247" s="2">
+        <v>28</v>
+      </c>
+      <c r="D247" s="3">
+        <v>51530000</v>
+      </c>
+      <c r="E247" s="3">
+        <v>17176667</v>
+      </c>
+      <c r="F247" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="G247" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C248" s="2">
+        <v>30</v>
+      </c>
+      <c r="D248" s="3">
+        <v>45000000</v>
+      </c>
+      <c r="E248" s="3">
+        <v>15000000</v>
+      </c>
+      <c r="F248" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="G248" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C249" s="2">
+        <v>29</v>
+      </c>
+      <c r="D249" s="3">
+        <v>40000000</v>
+      </c>
+      <c r="E249" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="F249" s="3">
+        <v>16000000</v>
+      </c>
+      <c r="G249" s="3">
+        <v>16000000</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C250" s="2">
+        <v>25</v>
+      </c>
+      <c r="D250" s="3">
+        <v>14700000</v>
+      </c>
+      <c r="E250" s="3">
+        <v>3675000</v>
+      </c>
+      <c r="F250" s="3">
+        <v>14700000</v>
+      </c>
+      <c r="G250" s="3">
+        <v>14700000</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C251" s="2">
+        <v>24</v>
+      </c>
+      <c r="D251" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="E251" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="F251" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="G251" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C252" s="2">
+        <v>25</v>
+      </c>
+      <c r="D252" s="3">
+        <v>2570000</v>
+      </c>
+      <c r="E252" s="3">
+        <v>857000</v>
+      </c>
+      <c r="F252" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G252" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C253" s="2">
+        <v>30</v>
+      </c>
+      <c r="D253" s="3">
+        <v>13000000</v>
+      </c>
+      <c r="E253" s="3">
+        <v>6500000</v>
+      </c>
+      <c r="F253" s="3">
+        <v>7000000</v>
+      </c>
+      <c r="G253" s="3">
+        <v>7000000</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C254" s="2">
+        <v>30</v>
+      </c>
+      <c r="D254" s="3">
+        <v>10500000</v>
+      </c>
+      <c r="E254" s="3">
+        <v>10500000</v>
+      </c>
+      <c r="F254" s="3">
+        <v>10500000</v>
+      </c>
+      <c r="G254" s="3">
+        <v>10500000</v>
+      </c>
+      <c r="H254" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C255" s="2">
+        <v>34</v>
+      </c>
+      <c r="D255" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="E255" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="F255" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G255" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C256" s="2">
+        <v>24</v>
+      </c>
+      <c r="D256" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="E256" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="F256" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="G256" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="H256" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C257" s="2">
+        <v>27</v>
+      </c>
+      <c r="D257" s="3">
+        <v>13800000</v>
+      </c>
+      <c r="E257" s="3">
+        <v>3450000</v>
+      </c>
+      <c r="F257" s="3">
+        <v>13800000</v>
+      </c>
+      <c r="G257" s="3">
+        <v>13800000</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C258" s="2">
+        <v>33</v>
+      </c>
+      <c r="D258" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="E258" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="F258" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="G258" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C259" s="2">
+        <v>29</v>
+      </c>
+      <c r="D259" s="3">
+        <v>4250000</v>
+      </c>
+      <c r="E259" s="3">
+        <v>4250000</v>
+      </c>
+      <c r="F259" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="G259" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="H259" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C260" s="2">
+        <v>27</v>
+      </c>
+      <c r="D260" s="3">
+        <v>2705000</v>
+      </c>
+      <c r="E260" s="3">
+        <v>902000</v>
+      </c>
+      <c r="F260" s="3">
+        <v>45000</v>
+      </c>
+      <c r="G260" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C261" s="2">
+        <v>31</v>
+      </c>
+      <c r="D261" s="3">
+        <v>21000000</v>
+      </c>
+      <c r="E261" s="3">
+        <v>7000000</v>
+      </c>
+      <c r="F261" s="3">
+        <v>16000000</v>
+      </c>
+      <c r="G261" s="3">
+        <v>16000000</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C262" s="2">
+        <v>31</v>
+      </c>
+      <c r="D262" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="E262" s="3">
+        <v>2750000</v>
+      </c>
+      <c r="F262" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="G262" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C263" s="2">
+        <v>33</v>
+      </c>
+      <c r="D263" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="E263" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="F263" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="G263" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="H263" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C264" s="2">
+        <v>24</v>
+      </c>
+      <c r="D264" s="3">
+        <v>2710000</v>
+      </c>
+      <c r="E264" s="3">
+        <v>903333</v>
+      </c>
+      <c r="F264" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G264" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C265" s="2">
+        <v>28</v>
+      </c>
+      <c r="D265" s="3">
+        <v>5200000</v>
+      </c>
+      <c r="E265" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="F265" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="G265" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="H265" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C266" s="2">
+        <v>29</v>
+      </c>
+      <c r="D266" s="3">
+        <v>43500000</v>
+      </c>
+      <c r="E266" s="3">
+        <v>14500000</v>
+      </c>
+      <c r="F266" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="G266" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="H266" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C267" s="2">
+        <v>29</v>
+      </c>
+      <c r="D267" s="3">
+        <v>135000000</v>
+      </c>
+      <c r="E267" s="3">
+        <v>27000000</v>
+      </c>
+      <c r="F267" s="3">
+        <v>102000000</v>
+      </c>
+      <c r="G267" s="3">
+        <v>78000000</v>
+      </c>
+      <c r="H267" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C268" s="2">
+        <v>33</v>
+      </c>
+      <c r="D268" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="E268" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="F268" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G268" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H268" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C269" s="2">
+        <v>26</v>
+      </c>
+      <c r="D269" s="3">
+        <v>13088000</v>
+      </c>
+      <c r="E269" s="3">
+        <v>3272000</v>
+      </c>
+      <c r="F269" s="3">
+        <v>13088000</v>
+      </c>
+      <c r="G269" s="3">
+        <v>13088000</v>
+      </c>
+      <c r="H269" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C270" s="2">
+        <v>28</v>
+      </c>
+      <c r="D270" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="E270" s="3">
+        <v>900000</v>
+      </c>
+      <c r="F270" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G270" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H270" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C271" s="2">
+        <v>31</v>
+      </c>
+      <c r="D271" s="3">
+        <v>9000000</v>
+      </c>
+      <c r="E271" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="F271" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="G271" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C272" s="2">
+        <v>27</v>
+      </c>
+      <c r="D272" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="E272" s="3">
+        <v>833333</v>
+      </c>
+      <c r="F272" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G272" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/SalaryData2024.xlsx
+++ b/Data/SalaryData2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint\OneDrive\Desktop\Python\PassRusherProfile\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCF4517-737D-4132-A43C-A393B2195DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301FCFF7-F4E0-4725-B059-9A3709163EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{145E95C2-4CEE-4C00-8587-05CEAAFF428B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="352">
   <si>
     <t>Player</t>
   </si>
@@ -984,6 +984,9 @@
   </si>
   <si>
     <t>Cincinnati Bengals</t>
+  </si>
+  <si>
+    <t>Khari Blasingame</t>
   </si>
   <si>
     <t>Chicago Bears</t>
@@ -1470,16 +1473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056453F3-443A-43CE-9113-6295878462E1}">
-  <dimension ref="A1:J272"/>
+  <dimension ref="A1:J273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="J271" sqref="J271"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="J252" sqref="J252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="20.734375" customWidth="1"/>
-    <col min="4" max="4" width="12.3125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7724,131 +7726,131 @@
         <v>252</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="C241" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D241" s="3">
-        <v>2705000</v>
+        <v>135000000</v>
       </c>
       <c r="E241" s="3">
-        <v>902000</v>
+        <v>27000000</v>
       </c>
       <c r="F241" s="3">
-        <v>45000</v>
+        <v>102000000</v>
       </c>
       <c r="G241" s="3">
-        <v>45000</v>
+        <v>78000000</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="2" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="C242" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D242" s="3">
-        <v>2710000</v>
+        <v>2500000</v>
       </c>
       <c r="E242" s="3">
-        <v>903333</v>
+        <v>2500000</v>
       </c>
       <c r="F242" s="3">
-        <v>50000</v>
+        <v>1000000</v>
       </c>
       <c r="G242" s="3">
-        <v>50000</v>
+        <v>1000000</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="2" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="C243" s="2">
         <v>26</v>
       </c>
       <c r="D243" s="3">
-        <v>4100000</v>
+        <v>13088000</v>
       </c>
       <c r="E243" s="3">
-        <v>1025000</v>
+        <v>3272000</v>
       </c>
       <c r="F243" s="3">
-        <v>1000000</v>
+        <v>13088000</v>
       </c>
       <c r="G243" s="3">
-        <v>1000000</v>
+        <v>13088000</v>
       </c>
       <c r="H243" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C244" s="2">
+        <v>28</v>
+      </c>
+      <c r="D244" s="3">
+        <v>2700000</v>
+      </c>
+      <c r="E244" s="3">
+        <v>900000</v>
+      </c>
+      <c r="F244" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G244" s="3">
+        <v>150000</v>
+      </c>
+      <c r="H244" s="2" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A244" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C244" s="2">
-        <v>30</v>
-      </c>
-      <c r="D244" s="3">
-        <v>22000000</v>
-      </c>
-      <c r="E244" s="3">
-        <v>5500000</v>
-      </c>
-      <c r="F244" s="3">
-        <v>10000000</v>
-      </c>
-      <c r="G244" s="3">
-        <v>10000000</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="2" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="C245" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D245" s="3">
-        <v>3800000</v>
+        <v>9000000</v>
       </c>
       <c r="E245" s="3">
-        <v>950000</v>
+        <v>3000000</v>
       </c>
       <c r="F245" s="3">
-        <v>320000</v>
+        <v>3000000</v>
       </c>
       <c r="G245" s="3">
-        <v>320000</v>
+        <v>3000000</v>
       </c>
       <c r="H245" s="2" t="s">
         <v>52</v>
@@ -7856,207 +7858,207 @@
     </row>
     <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="2" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C246" s="2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D246" s="3">
-        <v>52000000</v>
+        <v>2500000</v>
       </c>
       <c r="E246" s="3">
-        <v>13000000</v>
+        <v>833333</v>
       </c>
       <c r="F246" s="3">
-        <v>16000000</v>
+        <v>100000</v>
       </c>
       <c r="G246" s="3">
-        <v>16000000</v>
+        <v>100000</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C247" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D247" s="3">
-        <v>51530000</v>
+        <v>2705000</v>
       </c>
       <c r="E247" s="3">
-        <v>17176667</v>
+        <v>902000</v>
       </c>
       <c r="F247" s="3">
-        <v>30000000</v>
+        <v>45000</v>
       </c>
       <c r="G247" s="3">
-        <v>30000000</v>
+        <v>45000</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C248" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D248" s="3">
-        <v>45000000</v>
+        <v>2710000</v>
       </c>
       <c r="E248" s="3">
-        <v>15000000</v>
+        <v>903333</v>
       </c>
       <c r="F248" s="3">
-        <v>30000000</v>
+        <v>50000</v>
       </c>
       <c r="G248" s="3">
-        <v>30000000</v>
+        <v>50000</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C249" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D249" s="3">
-        <v>40000000</v>
+        <v>4100000</v>
       </c>
       <c r="E249" s="3">
+        <v>1025000</v>
+      </c>
+      <c r="F249" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G249" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C250" s="2">
+        <v>30</v>
+      </c>
+      <c r="D250" s="3">
+        <v>22000000</v>
+      </c>
+      <c r="E250" s="3">
+        <v>5500000</v>
+      </c>
+      <c r="F250" s="3">
         <v>10000000</v>
       </c>
-      <c r="F249" s="3">
-        <v>16000000</v>
-      </c>
-      <c r="G249" s="3">
-        <v>16000000</v>
-      </c>
-      <c r="H249" s="2" t="s">
+      <c r="G250" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="H250" s="2" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A250" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C250" s="2">
-        <v>25</v>
-      </c>
-      <c r="D250" s="3">
-        <v>14700000</v>
-      </c>
-      <c r="E250" s="3">
-        <v>3675000</v>
-      </c>
-      <c r="F250" s="3">
-        <v>14700000</v>
-      </c>
-      <c r="G250" s="3">
-        <v>14700000</v>
-      </c>
-      <c r="H250" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C251" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D251" s="3">
-        <v>5000000</v>
+        <v>3800000</v>
       </c>
       <c r="E251" s="3">
-        <v>1250000</v>
+        <v>950000</v>
       </c>
       <c r="F251" s="3">
-        <v>3000000</v>
+        <v>320000</v>
       </c>
       <c r="G251" s="3">
-        <v>3000000</v>
+        <v>320000</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C252" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D252" s="3">
-        <v>2570000</v>
+        <v>52000000</v>
       </c>
       <c r="E252" s="3">
-        <v>857000</v>
+        <v>13000000</v>
       </c>
       <c r="F252" s="3">
-        <v>10000</v>
+        <v>16000000</v>
       </c>
       <c r="G252" s="3">
-        <v>10000</v>
+        <v>16000000</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C253" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D253" s="3">
-        <v>13000000</v>
+        <v>51530000</v>
       </c>
       <c r="E253" s="3">
-        <v>6500000</v>
+        <v>17176667</v>
       </c>
       <c r="F253" s="3">
-        <v>7000000</v>
+        <v>30000000</v>
       </c>
       <c r="G253" s="3">
-        <v>7000000</v>
+        <v>30000000</v>
       </c>
       <c r="H253" s="2" t="s">
         <v>17</v>
@@ -8064,103 +8066,103 @@
     </row>
     <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C254" s="2">
         <v>30</v>
       </c>
       <c r="D254" s="3">
-        <v>10500000</v>
+        <v>45000000</v>
       </c>
       <c r="E254" s="3">
-        <v>10500000</v>
+        <v>15000000</v>
       </c>
       <c r="F254" s="3">
-        <v>10500000</v>
+        <v>30000000</v>
       </c>
       <c r="G254" s="3">
-        <v>10500000</v>
+        <v>30000000</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C255" s="2">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D255" s="3">
-        <v>2500000</v>
+        <v>40000000</v>
       </c>
       <c r="E255" s="3">
-        <v>1250000</v>
+        <v>10000000</v>
       </c>
       <c r="F255" s="3">
-        <v>1000000</v>
+        <v>16000000</v>
       </c>
       <c r="G255" s="3">
-        <v>1000000</v>
+        <v>16000000</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C256" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D256" s="3">
-        <v>5000000</v>
+        <v>2700000</v>
       </c>
       <c r="E256" s="3">
-        <v>1250000</v>
+        <v>900000</v>
       </c>
       <c r="F256" s="3">
-        <v>3000000</v>
+        <v>1080000</v>
       </c>
       <c r="G256" s="3">
-        <v>3000000</v>
+        <v>1080000</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C257" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D257" s="3">
-        <v>13800000</v>
+        <v>14700000</v>
       </c>
       <c r="E257" s="3">
-        <v>3450000</v>
+        <v>3675000</v>
       </c>
       <c r="F257" s="3">
-        <v>13800000</v>
+        <v>14700000</v>
       </c>
       <c r="G257" s="3">
-        <v>13800000</v>
+        <v>14700000</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>17</v>
@@ -8168,19 +8170,19 @@
     </row>
     <row r="258" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C258" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D258" s="3">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="E258" s="3">
-        <v>3000000</v>
+        <v>1250000</v>
       </c>
       <c r="F258" s="3">
         <v>3000000</v>
@@ -8189,128 +8191,128 @@
         <v>3000000</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="C259" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D259" s="3">
-        <v>4250000</v>
+        <v>2570000</v>
       </c>
       <c r="E259" s="3">
-        <v>4250000</v>
+        <v>857000</v>
       </c>
       <c r="F259" s="3">
-        <v>3000000</v>
+        <v>10000</v>
       </c>
       <c r="G259" s="3">
-        <v>3000000</v>
+        <v>10000</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C260" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D260" s="3">
-        <v>2705000</v>
+        <v>13000000</v>
       </c>
       <c r="E260" s="3">
-        <v>902000</v>
+        <v>6500000</v>
       </c>
       <c r="F260" s="3">
-        <v>45000</v>
+        <v>7000000</v>
       </c>
       <c r="G260" s="3">
-        <v>45000</v>
+        <v>7000000</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C261" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D261" s="3">
-        <v>21000000</v>
+        <v>10500000</v>
       </c>
       <c r="E261" s="3">
-        <v>7000000</v>
+        <v>10500000</v>
       </c>
       <c r="F261" s="3">
-        <v>16000000</v>
+        <v>10500000</v>
       </c>
       <c r="G261" s="3">
-        <v>16000000</v>
+        <v>10500000</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C262" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D262" s="3">
-        <v>5500000</v>
+        <v>2500000</v>
       </c>
       <c r="E262" s="3">
-        <v>2750000</v>
+        <v>1250000</v>
       </c>
       <c r="F262" s="3">
-        <v>2300000</v>
+        <v>1000000</v>
       </c>
       <c r="G262" s="3">
-        <v>2300000</v>
+        <v>1000000</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C263" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D263" s="3">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="E263" s="3">
-        <v>3000000</v>
+        <v>1250000</v>
       </c>
       <c r="F263" s="3">
         <v>3000000</v>
@@ -8319,50 +8321,50 @@
         <v>3000000</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="C264" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D264" s="3">
-        <v>2710000</v>
+        <v>13800000</v>
       </c>
       <c r="E264" s="3">
-        <v>903333</v>
+        <v>3450000</v>
       </c>
       <c r="F264" s="3">
-        <v>50000</v>
+        <v>13800000</v>
       </c>
       <c r="G264" s="3">
-        <v>50000</v>
+        <v>13800000</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C265" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D265" s="3">
-        <v>5200000</v>
+        <v>3000000</v>
       </c>
       <c r="E265" s="3">
-        <v>2600000</v>
+        <v>3000000</v>
       </c>
       <c r="F265" s="3">
         <v>3000000</v>
@@ -8371,134 +8373,134 @@
         <v>3000000</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C266" s="2">
         <v>29</v>
       </c>
       <c r="D266" s="3">
-        <v>43500000</v>
+        <v>4250000</v>
       </c>
       <c r="E266" s="3">
-        <v>14500000</v>
+        <v>4250000</v>
       </c>
       <c r="F266" s="3">
-        <v>30000000</v>
+        <v>3000000</v>
       </c>
       <c r="G266" s="3">
-        <v>30000000</v>
+        <v>3000000</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="2" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C267" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D267" s="3">
-        <v>135000000</v>
+        <v>2705000</v>
       </c>
       <c r="E267" s="3">
-        <v>27000000</v>
+        <v>902000</v>
       </c>
       <c r="F267" s="3">
-        <v>102000000</v>
+        <v>45000</v>
       </c>
       <c r="G267" s="3">
-        <v>78000000</v>
+        <v>45000</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="C268" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D268" s="3">
-        <v>2500000</v>
+        <v>21000000</v>
       </c>
       <c r="E268" s="3">
-        <v>2500000</v>
+        <v>7000000</v>
       </c>
       <c r="F268" s="3">
-        <v>1000000</v>
+        <v>16000000</v>
       </c>
       <c r="G268" s="3">
-        <v>1000000</v>
+        <v>16000000</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C269" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D269" s="3">
-        <v>13088000</v>
+        <v>5500000</v>
       </c>
       <c r="E269" s="3">
-        <v>3272000</v>
+        <v>2750000</v>
       </c>
       <c r="F269" s="3">
-        <v>13088000</v>
+        <v>2300000</v>
       </c>
       <c r="G269" s="3">
-        <v>13088000</v>
+        <v>2300000</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C270" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D270" s="3">
-        <v>2700000</v>
+        <v>3000000</v>
       </c>
       <c r="E270" s="3">
-        <v>900000</v>
+        <v>3000000</v>
       </c>
       <c r="F270" s="3">
-        <v>150000</v>
+        <v>3000000</v>
       </c>
       <c r="G270" s="3">
-        <v>150000</v>
+        <v>3000000</v>
       </c>
       <c r="H270" s="2" t="s">
         <v>52</v>
@@ -8506,54 +8508,80 @@
     </row>
     <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="2" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="C271" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D271" s="3">
-        <v>9000000</v>
+        <v>2710000</v>
       </c>
       <c r="E271" s="3">
-        <v>3000000</v>
+        <v>903333</v>
       </c>
       <c r="F271" s="3">
-        <v>3000000</v>
+        <v>50000</v>
       </c>
       <c r="G271" s="3">
-        <v>3000000</v>
+        <v>50000</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="C272" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D272" s="3">
-        <v>2500000</v>
+        <v>5200000</v>
       </c>
       <c r="E272" s="3">
-        <v>833333</v>
+        <v>2600000</v>
       </c>
       <c r="F272" s="3">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="G272" s="3">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C273" s="2">
+        <v>29</v>
+      </c>
+      <c r="D273" s="3">
+        <v>43500000</v>
+      </c>
+      <c r="E273" s="3">
+        <v>14500000</v>
+      </c>
+      <c r="F273" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="G273" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="H273" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SalaryData2024.xlsx
+++ b/Data/SalaryData2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint\OneDrive\Desktop\Python\PassRusherProfile\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301FCFF7-F4E0-4725-B059-9A3709163EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687AAF57-E1A0-4F3F-850F-64FA93B7BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{145E95C2-4CEE-4C00-8587-05CEAAFF428B}"/>
   </bookViews>
@@ -1475,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056453F3-443A-43CE-9113-6295878462E1}">
   <dimension ref="A1:J273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="J252" sqref="J252"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
